--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.69468161596372</v>
+        <v>17.69468161596376</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.53734838803617</v>
+        <v>11.53734838803626</v>
       </c>
       <c r="E2">
-        <v>42.96967855960807</v>
+        <v>42.96967855960843</v>
       </c>
       <c r="F2">
-        <v>76.03968616745647</v>
+        <v>76.03968616745705</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.10218171561648</v>
+        <v>9.102181715616315</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.34011254986647</v>
+        <v>39.34011254986661</v>
       </c>
       <c r="L2">
-        <v>32.78467125731329</v>
+        <v>32.78467125731338</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.42652609411155</v>
+        <v>16.42652609411144</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.37666496536253</v>
+        <v>10.37666496536245</v>
       </c>
       <c r="E3">
-        <v>39.48436406625249</v>
+        <v>39.48436406625231</v>
       </c>
       <c r="F3">
-        <v>68.85025134493745</v>
+        <v>68.85025134493736</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.09760381372161</v>
+        <v>10.09760381372168</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>36.02597401666711</v>
       </c>
       <c r="L3">
-        <v>30.16591535538665</v>
+        <v>30.16591535538659</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.61692695265963</v>
+        <v>15.61692695265957</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.68169650961196</v>
+        <v>9.68169650961199</v>
       </c>
       <c r="E4">
-        <v>37.34357987895284</v>
+        <v>37.34357987895275</v>
       </c>
       <c r="F4">
-        <v>64.5278066610569</v>
+        <v>64.52780666105676</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10.70633680140466</v>
+        <v>10.7063368014047</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>33.97947013134517</v>
+        <v>33.97947013134515</v>
       </c>
       <c r="L4">
-        <v>28.53596690644593</v>
+        <v>28.53596690644589</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -532,19 +532,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.400383377052297</v>
+        <v>9.400383377052329</v>
       </c>
       <c r="E5">
-        <v>36.46499066250395</v>
+        <v>36.46499066250352</v>
       </c>
       <c r="F5">
-        <v>62.77536015386183</v>
+        <v>62.77536015386124</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.95451075663532</v>
+        <v>10.95451075663543</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>33.13761309172635</v>
+        <v>33.13761309172612</v>
       </c>
       <c r="L5">
-        <v>27.86285568728006</v>
+        <v>27.86285568727992</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22178695207903</v>
+        <v>15.22178695207898</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.353726968083816</v>
+        <v>9.353726968083828</v>
       </c>
       <c r="E6">
-        <v>36.31859004814053</v>
+        <v>36.31859004814034</v>
       </c>
       <c r="F6">
-        <v>62.48458937245483</v>
+        <v>62.48458937245458</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10.99574613459363</v>
+        <v>10.99574613459358</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>32.9972312549881</v>
+        <v>32.99723125498802</v>
       </c>
       <c r="L6">
-        <v>27.75047086203369</v>
+        <v>27.75047086203363</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61239815494767</v>
+        <v>15.61239815494766</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,16 +611,16 @@
         <v>9.677897713526411</v>
       </c>
       <c r="E7">
-        <v>37.33176244279168</v>
+        <v>37.33176244279178</v>
       </c>
       <c r="F7">
-        <v>64.50415122252507</v>
+        <v>64.50415122252508</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10.70968241609203</v>
+        <v>10.70968241609212</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.26333337535052</v>
+        <v>17.26333337535051</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.13160589975446</v>
+        <v>11.1316058997543</v>
       </c>
       <c r="E8">
-        <v>41.76369641928697</v>
+        <v>41.7636964192868</v>
       </c>
       <c r="F8">
-        <v>73.53132209265435</v>
+        <v>73.53132209265402</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.446379038057295</v>
+        <v>9.446379038057358</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>38.19620421318979</v>
+        <v>38.19620421318973</v>
       </c>
       <c r="L8">
-        <v>31.88386236896468</v>
+        <v>31.88386236896462</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.30957942796767</v>
+        <v>20.30957942796761</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>14.32916200091019</v>
+        <v>14.32916200091011</v>
       </c>
       <c r="E9">
-        <v>50.94271646867236</v>
+        <v>50.94271646867207</v>
       </c>
       <c r="F9">
-        <v>93.11691737398482</v>
+        <v>93.11691737398439</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.914864696653529</v>
+        <v>6.914864696653593</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>46.78947437450039</v>
+        <v>46.78947437450021</v>
       </c>
       <c r="L9">
-        <v>38.55807740531595</v>
+        <v>38.55807740531586</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E10">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F10">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L10">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E11">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F11">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L11">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E12">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F12">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L12">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E13">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F13">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L13">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E14">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F14">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L14">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E15">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F15">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L15">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E16">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F16">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L16">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E17">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F17">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L17">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E18">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F18">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L18">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E19">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F19">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L19">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E20">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F20">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L20">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E21">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F21">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L21">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E22">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F22">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L22">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E23">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F23">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L23">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E24">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F24">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L24">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.64090627673123</v>
+        <v>22.64090627673131</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.7504245563372</v>
+        <v>17.75042455633719</v>
       </c>
       <c r="E25">
-        <v>60.103277279946</v>
+        <v>60.10327727994619</v>
       </c>
       <c r="F25">
-        <v>113.465330105881</v>
+        <v>113.4653301058814</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.83913845091451</v>
+        <v>6.83913845091478</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>54.89629067908925</v>
+        <v>54.89629067908932</v>
       </c>
       <c r="L25">
-        <v>44.60254425845289</v>
+        <v>44.60254425845301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.69468161596376</v>
+        <v>17.69468161596372</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.53734838803626</v>
+        <v>11.53734838803617</v>
       </c>
       <c r="E2">
-        <v>42.96967855960843</v>
+        <v>42.96967855960807</v>
       </c>
       <c r="F2">
-        <v>76.03968616745705</v>
+        <v>76.03968616745647</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.102181715616315</v>
+        <v>9.10218171561648</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.34011254986661</v>
+        <v>39.34011254986647</v>
       </c>
       <c r="L2">
-        <v>32.78467125731338</v>
+        <v>32.78467125731329</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.42652609411144</v>
+        <v>16.42652609411155</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.37666496536245</v>
+        <v>10.37666496536253</v>
       </c>
       <c r="E3">
-        <v>39.48436406625231</v>
+        <v>39.48436406625249</v>
       </c>
       <c r="F3">
-        <v>68.85025134493736</v>
+        <v>68.85025134493745</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.09760381372168</v>
+        <v>10.09760381372161</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>36.02597401666711</v>
       </c>
       <c r="L3">
-        <v>30.16591535538659</v>
+        <v>30.16591535538665</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.61692695265957</v>
+        <v>15.61692695265963</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.68169650961199</v>
+        <v>9.68169650961196</v>
       </c>
       <c r="E4">
-        <v>37.34357987895275</v>
+        <v>37.34357987895284</v>
       </c>
       <c r="F4">
-        <v>64.52780666105676</v>
+        <v>64.5278066610569</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10.7063368014047</v>
+        <v>10.70633680140466</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>33.97947013134515</v>
+        <v>33.97947013134517</v>
       </c>
       <c r="L4">
-        <v>28.53596690644589</v>
+        <v>28.53596690644593</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -532,19 +532,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.400383377052329</v>
+        <v>9.400383377052297</v>
       </c>
       <c r="E5">
-        <v>36.46499066250352</v>
+        <v>36.46499066250395</v>
       </c>
       <c r="F5">
-        <v>62.77536015386124</v>
+        <v>62.77536015386183</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.95451075663543</v>
+        <v>10.95451075663532</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>33.13761309172612</v>
+        <v>33.13761309172635</v>
       </c>
       <c r="L5">
-        <v>27.86285568727992</v>
+        <v>27.86285568728006</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22178695207898</v>
+        <v>15.22178695207903</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.353726968083828</v>
+        <v>9.353726968083816</v>
       </c>
       <c r="E6">
-        <v>36.31859004814034</v>
+        <v>36.31859004814053</v>
       </c>
       <c r="F6">
-        <v>62.48458937245458</v>
+        <v>62.48458937245483</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10.99574613459358</v>
+        <v>10.99574613459363</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>32.99723125498802</v>
+        <v>32.9972312549881</v>
       </c>
       <c r="L6">
-        <v>27.75047086203363</v>
+        <v>27.75047086203369</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61239815494766</v>
+        <v>15.61239815494767</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,16 +611,16 @@
         <v>9.677897713526411</v>
       </c>
       <c r="E7">
-        <v>37.33176244279178</v>
+        <v>37.33176244279168</v>
       </c>
       <c r="F7">
-        <v>64.50415122252508</v>
+        <v>64.50415122252507</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10.70968241609212</v>
+        <v>10.70968241609203</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.26333337535051</v>
+        <v>17.26333337535052</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.1316058997543</v>
+        <v>11.13160589975446</v>
       </c>
       <c r="E8">
-        <v>41.7636964192868</v>
+        <v>41.76369641928697</v>
       </c>
       <c r="F8">
-        <v>73.53132209265402</v>
+        <v>73.53132209265435</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.446379038057358</v>
+        <v>9.446379038057295</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>38.19620421318973</v>
+        <v>38.19620421318979</v>
       </c>
       <c r="L8">
-        <v>31.88386236896462</v>
+        <v>31.88386236896468</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.30957942796761</v>
+        <v>20.30957942796767</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>14.32916200091011</v>
+        <v>14.32916200091019</v>
       </c>
       <c r="E9">
-        <v>50.94271646867207</v>
+        <v>50.94271646867236</v>
       </c>
       <c r="F9">
-        <v>93.11691737398439</v>
+        <v>93.11691737398482</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.914864696653593</v>
+        <v>6.914864696653529</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>46.78947437450021</v>
+        <v>46.78947437450039</v>
       </c>
       <c r="L9">
-        <v>38.55807740531586</v>
+        <v>38.55807740531595</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E10">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F10">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L10">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E11">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F11">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L11">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E12">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F12">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L12">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E13">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F13">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L13">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E14">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F14">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L14">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E15">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F15">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L15">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E16">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F16">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L16">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E17">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F17">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L17">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E18">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F18">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L18">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E19">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F19">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L19">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E20">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F20">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L20">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E21">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F21">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L21">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E22">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F22">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L22">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E23">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F23">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L23">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E24">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F24">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L24">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.64090627673131</v>
+        <v>22.64090627673123</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.75042455633719</v>
+        <v>17.7504245563372</v>
       </c>
       <c r="E25">
-        <v>60.10327727994619</v>
+        <v>60.103277279946</v>
       </c>
       <c r="F25">
-        <v>113.4653301058814</v>
+        <v>113.465330105881</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.83913845091478</v>
+        <v>6.83913845091451</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>54.89629067908932</v>
+        <v>54.89629067908925</v>
       </c>
       <c r="L25">
-        <v>44.60254425845301</v>
+        <v>44.60254425845289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.69468161596372</v>
+        <v>17.65427037667909</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.53734838803617</v>
+        <v>11.35787376095881</v>
       </c>
       <c r="E2">
-        <v>42.96967855960807</v>
+        <v>42.51534152702289</v>
       </c>
       <c r="F2">
-        <v>76.03968616745647</v>
+        <v>75.3332433958952</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.829790500747242</v>
       </c>
       <c r="H2">
-        <v>9.10218171561648</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.272802279767332</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.34011254986647</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.78467125731329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>39.07051283490037</v>
+      </c>
+      <c r="M2">
+        <v>32.58864705947244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.42652609411155</v>
+        <v>16.38927673568174</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.37666496536253</v>
+        <v>10.21781102568653</v>
       </c>
       <c r="E3">
-        <v>39.48436406625249</v>
+        <v>39.06169717984675</v>
       </c>
       <c r="F3">
-        <v>68.85025134493745</v>
+        <v>68.27021163660893</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.872911488660826</v>
       </c>
       <c r="H3">
-        <v>10.09760381372161</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10.26541148289702</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>36.02597401666711</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>30.16591535538665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>35.78680093457292</v>
+      </c>
+      <c r="M3">
+        <v>29.98771819093028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.61692695265963</v>
+        <v>15.58129362726038</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.68169650961196</v>
+        <v>9.534871306273415</v>
       </c>
       <c r="E4">
-        <v>37.34357987895284</v>
+        <v>36.9361218424494</v>
       </c>
       <c r="F4">
-        <v>64.5278066610569</v>
+        <v>64.02242327198731</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.898119613699321</v>
       </c>
       <c r="H4">
-        <v>10.70633680140466</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.872678425367</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>33.97947013134517</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.53596690644593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>33.75669752216414</v>
+      </c>
+      <c r="M4">
+        <v>28.36692727912665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.27851092736317</v>
+        <v>15.24348079052271</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.400383377052297</v>
+        <v>9.258438316574789</v>
       </c>
       <c r="E5">
-        <v>36.46499066250395</v>
+        <v>36.06296028840514</v>
       </c>
       <c r="F5">
-        <v>62.77536015386183</v>
+        <v>62.30044484810549</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.90818910047689</v>
       </c>
       <c r="H5">
-        <v>10.95451075663532</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.12031137944633</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>33.13761309172635</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>27.86285568728006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>32.92118187591321</v>
+      </c>
+      <c r="M5">
+        <v>27.69724745010488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22178695207903</v>
+        <v>15.18685416951155</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.353726968083816</v>
+        <v>9.212594004650136</v>
       </c>
       <c r="E6">
-        <v>36.31859004814053</v>
+        <v>35.91742034833066</v>
       </c>
       <c r="F6">
-        <v>62.48458937245483</v>
+        <v>62.01475364069419</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.90985155576329</v>
       </c>
       <c r="H6">
-        <v>10.99574613459363</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.16146004059379</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>32.9972312549881</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>27.75047086203369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>32.78183726492392</v>
+      </c>
+      <c r="M6">
+        <v>27.58541733649776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61239815494767</v>
+        <v>15.57677316287786</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.677897713526411</v>
+        <v>9.531138269900596</v>
       </c>
       <c r="E7">
-        <v>37.33176244279168</v>
+        <v>36.9243804410354</v>
       </c>
       <c r="F7">
-        <v>64.50415122252507</v>
+        <v>63.99917772840826</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.898256110858436</v>
       </c>
       <c r="H7">
-        <v>10.70968241609203</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.87601652868956</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>33.96815389570219</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.52692874867496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>33.74546796195362</v>
+      </c>
+      <c r="M7">
+        <v>28.3579364685797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.26333337535052</v>
+        <v>17.22410091176605</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.13160589975446</v>
+        <v>10.95947660770374</v>
       </c>
       <c r="E8">
-        <v>41.76369641928697</v>
+        <v>41.3213949703842</v>
       </c>
       <c r="F8">
-        <v>73.53132209265435</v>
+        <v>72.86967126065716</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.845005981367252</v>
       </c>
       <c r="H8">
-        <v>9.446379038057295</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.615970947086193</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>38.19620421318979</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>31.88386236896468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>37.93774989709096</v>
+      </c>
+      <c r="M8">
+        <v>31.69447406105923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.30957942796767</v>
+        <v>20.25781199188494</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>14.32916200091019</v>
+        <v>14.08877272921042</v>
       </c>
       <c r="E9">
-        <v>50.94271646867236</v>
+        <v>50.36570653700726</v>
       </c>
       <c r="F9">
-        <v>93.11691737398482</v>
+        <v>92.04817830767631</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.721339876950639</v>
       </c>
       <c r="H9">
-        <v>6.914864696653529</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>7.092617707974649</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>46.78947437450039</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>38.55807740531595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>46.41860100781211</v>
+      </c>
+      <c r="M9">
+        <v>38.29848361753388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E10">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F10">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H10">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M10">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E11">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F11">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H11">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M11">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E12">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F12">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H12">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M12">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E13">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F13">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H13">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M13">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E14">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F14">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H14">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M14">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E15">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F15">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H15">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M15">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E16">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F16">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H16">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M16">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E17">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F17">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H17">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M17">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E18">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F18">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H18">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M18">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E19">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F19">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H19">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M19">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E20">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F20">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H20">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M20">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E21">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F21">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H21">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M21">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E22">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F22">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H22">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M22">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E23">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F23">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H23">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M23">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E24">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F24">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H24">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>44.60254425845289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M24">
+        <v>44.14749465965627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.64090627673123</v>
+        <v>22.5538056100375</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.7504245563372</v>
+        <v>17.34626778562121</v>
       </c>
       <c r="E25">
-        <v>60.103277279946</v>
+        <v>59.12741471344351</v>
       </c>
       <c r="F25">
-        <v>113.465330105881</v>
+        <v>111.4667035619822</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.58286367814406</v>
       </c>
       <c r="H25">
-        <v>6.83913845091451</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6.643017656152186</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>54.89629067908925</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>44.60254425845289</v>
+        <v>54.23033120269971</v>
+      </c>
+      <c r="M25">
+        <v>44.14749465965627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65427037667909</v>
+        <v>7.284269282655775</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.35787376095881</v>
+        <v>5.852264543034051</v>
       </c>
       <c r="E2">
-        <v>42.51534152702289</v>
+        <v>32.38509398907831</v>
       </c>
       <c r="F2">
-        <v>75.3332433958952</v>
+        <v>51.24020596719202</v>
       </c>
       <c r="G2">
-        <v>1.829790500747242</v>
+        <v>1.918827290266414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.272802279767332</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>51.30877670466999</v>
       </c>
       <c r="L2">
-        <v>39.07051283490037</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>32.58864705947244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.97131443927002</v>
+      </c>
+      <c r="O2">
+        <v>40.79335654735583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.38927673568174</v>
+        <v>6.919785913398756</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.21781102568653</v>
+        <v>5.323566084448474</v>
       </c>
       <c r="E3">
-        <v>39.06169717984675</v>
+        <v>29.6755193589617</v>
       </c>
       <c r="F3">
-        <v>68.27021163660893</v>
+        <v>47.04428605037377</v>
       </c>
       <c r="G3">
-        <v>1.872911488660826</v>
+        <v>1.942182639728968</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.26541148289702</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>47.46442054497702</v>
       </c>
       <c r="L3">
-        <v>35.78680093457292</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>29.98771819093028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.0942017235874</v>
+      </c>
+      <c r="O3">
+        <v>37.40949052731769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.58129362726038</v>
+        <v>6.689696554553148</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.534871306273415</v>
+        <v>4.997234644319038</v>
       </c>
       <c r="E4">
-        <v>36.9361218424494</v>
+        <v>27.98633554892877</v>
       </c>
       <c r="F4">
-        <v>64.02242327198731</v>
+        <v>44.42956173842965</v>
       </c>
       <c r="G4">
-        <v>1.898119613699321</v>
+        <v>1.956359564010348</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.872678425367</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>45.02400359743074</v>
       </c>
       <c r="L4">
-        <v>33.75669752216414</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>28.36692727912665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.17276504222304</v>
+      </c>
+      <c r="O4">
+        <v>35.2998801974762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.24348079052271</v>
+        <v>6.594463266533883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.258438316574789</v>
+        <v>4.863306316725782</v>
       </c>
       <c r="E5">
-        <v>36.06296028840514</v>
+        <v>27.28919826337584</v>
       </c>
       <c r="F5">
-        <v>62.30044484810549</v>
+        <v>43.35176749464368</v>
       </c>
       <c r="G5">
-        <v>1.90818910047689</v>
+        <v>1.962121167131088</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.12031137944633</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>44.00741283862749</v>
       </c>
       <c r="L5">
-        <v>32.92118187591321</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>27.69724745010488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.20564232567648</v>
+      </c>
+      <c r="O5">
+        <v>34.4299513332064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.18685416951155</v>
+        <v>6.578564838161046</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.212594004650136</v>
+        <v>4.840997363949484</v>
       </c>
       <c r="E6">
-        <v>35.91742034833066</v>
+        <v>27.1728487570999</v>
       </c>
       <c r="F6">
-        <v>62.01475364069419</v>
+        <v>43.1719955624134</v>
       </c>
       <c r="G6">
-        <v>1.90985155576329</v>
+        <v>1.963077583085769</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.16146004059379</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>43.83722296026092</v>
       </c>
       <c r="L6">
-        <v>32.78183726492392</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>27.58541733649776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.21115558184385</v>
+      </c>
+      <c r="O6">
+        <v>34.28482658027633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.57677316287786</v>
+        <v>6.688417990213058</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.531138269900596</v>
+        <v>4.995432875249111</v>
       </c>
       <c r="E7">
-        <v>36.9243804410354</v>
+        <v>27.97697203851272</v>
       </c>
       <c r="F7">
-        <v>63.99917772840826</v>
+        <v>44.41507888707969</v>
       </c>
       <c r="G7">
-        <v>1.898256110858436</v>
+        <v>1.956437300266181</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.87601652868956</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>45.01038533395395</v>
       </c>
       <c r="L7">
-        <v>33.74546796195362</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>28.3579364685797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.17320485598556</v>
+      </c>
+      <c r="O7">
+        <v>35.2881920653703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.22410091176605</v>
+        <v>7.159962248280097</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.95947660770374</v>
+        <v>5.669976748830325</v>
       </c>
       <c r="E8">
-        <v>41.3213949703842</v>
+        <v>31.45452183071568</v>
       </c>
       <c r="F8">
-        <v>72.86967126065716</v>
+        <v>49.79962165076331</v>
       </c>
       <c r="G8">
-        <v>1.845005981367252</v>
+        <v>1.926931245106984</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.615970947086193</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>49.99850239483142</v>
       </c>
       <c r="L8">
-        <v>37.93774989709096</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>31.69447406105923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.01309635791129</v>
+      </c>
+      <c r="O8">
+        <v>39.6316980712148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.25781199188494</v>
+        <v>8.031019675699559</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>14.08877272921042</v>
+        <v>7.010488072223239</v>
       </c>
       <c r="E9">
-        <v>50.36570653700726</v>
+        <v>38.2173994810252</v>
       </c>
       <c r="F9">
-        <v>92.04817830767631</v>
+        <v>60.2204791651976</v>
       </c>
       <c r="G9">
-        <v>1.721339876950639</v>
+        <v>1.866233235989445</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.092617707974649</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>59.26562466011616</v>
       </c>
       <c r="L9">
-        <v>46.41860100781211</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>38.29848361753388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.71844474092654</v>
+      </c>
+      <c r="O9">
+        <v>48.03573044327052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.5538056100375</v>
+        <v>8.706318929961183</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.34626778562121</v>
+        <v>8.071509192780404</v>
       </c>
       <c r="E10">
-        <v>59.12741471344351</v>
+        <v>43.46187741897735</v>
       </c>
       <c r="F10">
-        <v>111.4667035619822</v>
+        <v>68.14806588927269</v>
       </c>
       <c r="G10">
-        <v>1.58286367814406</v>
+        <v>1.816712376214634</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>66.00823262119718</v>
       </c>
       <c r="L10">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.50127122712552</v>
+      </c>
+      <c r="O10">
+        <v>54.43639247939138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.5538056100375</v>
+        <v>9.025882096848335</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.34626778562121</v>
+        <v>8.597296833260424</v>
       </c>
       <c r="E11">
-        <v>59.12741471344351</v>
+        <v>46.03720738971076</v>
       </c>
       <c r="F11">
-        <v>111.4667035619822</v>
+        <v>71.95847440153203</v>
       </c>
       <c r="G11">
-        <v>1.58286367814406</v>
+        <v>1.7918287606714</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>69.16061298763877</v>
       </c>
       <c r="L11">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.39666108799334</v>
+      </c>
+      <c r="O11">
+        <v>57.51729997503654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.5538056100375</v>
+        <v>9.144866477938505</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.34626778562121</v>
+        <v>8.806696380347233</v>
       </c>
       <c r="E12">
-        <v>59.12741471344351</v>
+        <v>47.06014026439077</v>
       </c>
       <c r="F12">
-        <v>111.4667035619822</v>
+        <v>73.45288212812463</v>
       </c>
       <c r="G12">
-        <v>1.58286367814406</v>
+        <v>1.78187103695808</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>70.38171665600329</v>
       </c>
       <c r="L12">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.35527539695639</v>
+      </c>
+      <c r="O12">
+        <v>58.72660909282617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.5538056100375</v>
+        <v>9.119327603419402</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.34626778562121</v>
+        <v>8.761044537009459</v>
       </c>
       <c r="E13">
-        <v>59.12741471344351</v>
+        <v>46.83722511392892</v>
       </c>
       <c r="F13">
-        <v>111.4667035619822</v>
+        <v>73.12822915941503</v>
       </c>
       <c r="G13">
-        <v>1.58286367814406</v>
+        <v>1.784043965753223</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>70.11716044193643</v>
       </c>
       <c r="L13">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.36429000501258</v>
+      </c>
+      <c r="O13">
+        <v>58.46384009886039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.5538056100375</v>
+        <v>9.035710377047971</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.34626778562121</v>
+        <v>8.614284577556594</v>
       </c>
       <c r="E14">
-        <v>59.12741471344351</v>
+        <v>46.12023981654378</v>
       </c>
       <c r="F14">
-        <v>111.4667035619822</v>
+        <v>72.08020911615007</v>
       </c>
       <c r="G14">
-        <v>1.58286367814406</v>
+        <v>1.791021839207106</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>69.26040293686501</v>
       </c>
       <c r="L14">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.39329962178497</v>
+      </c>
+      <c r="O14">
+        <v>57.61578787341328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.5538056100375</v>
+        <v>8.984234783954008</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.34626778562121</v>
+        <v>8.52589775561195</v>
       </c>
       <c r="E15">
-        <v>59.12741471344351</v>
+        <v>45.68812329990756</v>
       </c>
       <c r="F15">
-        <v>111.4667035619822</v>
+        <v>71.44587067591215</v>
       </c>
       <c r="G15">
-        <v>1.58286367814406</v>
+        <v>1.795218375339138</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>68.73979251039911</v>
       </c>
       <c r="L15">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.41079885932964</v>
+      </c>
+      <c r="O15">
+        <v>57.10262713075122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.5538056100375</v>
+        <v>8.685140249860009</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.34626778562121</v>
+        <v>8.038310737538739</v>
       </c>
       <c r="E16">
-        <v>59.12741471344351</v>
+        <v>43.29885276499117</v>
       </c>
       <c r="F16">
-        <v>111.4667035619822</v>
+        <v>67.90475604981233</v>
       </c>
       <c r="G16">
-        <v>1.58286367814406</v>
+        <v>1.818276982421001</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>65.80502430352296</v>
       </c>
       <c r="L16">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.50792438935814</v>
+      </c>
+      <c r="O16">
+        <v>54.23977743473228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.5538056100375</v>
+        <v>8.497844714450155</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.34626778562121</v>
+        <v>7.752453164496089</v>
       </c>
       <c r="E17">
-        <v>59.12741471344351</v>
+        <v>41.89261500751434</v>
       </c>
       <c r="F17">
-        <v>111.4667035619822</v>
+        <v>65.79672442641625</v>
       </c>
       <c r="G17">
-        <v>1.58286367814406</v>
+        <v>1.831712516896902</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>64.03467208857134</v>
       </c>
       <c r="L17">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.56552586287771</v>
+      </c>
+      <c r="O17">
+        <v>52.53681355725177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.5538056100375</v>
+        <v>8.388668809014245</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.34626778562121</v>
+        <v>7.591759744925956</v>
       </c>
       <c r="E18">
-        <v>59.12741471344351</v>
+        <v>41.09994713917061</v>
       </c>
       <c r="F18">
-        <v>111.4667035619822</v>
+        <v>64.60164644795765</v>
       </c>
       <c r="G18">
-        <v>1.58286367814406</v>
+        <v>1.839234469565285</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>63.02319287247382</v>
       </c>
       <c r="L18">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.59818721893166</v>
+      </c>
+      <c r="O18">
+        <v>51.57174838135973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.5538056100375</v>
+        <v>8.351451059464923</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.34626778562121</v>
+        <v>7.537902881794187</v>
       </c>
       <c r="E19">
-        <v>59.12741471344351</v>
+        <v>40.83390396201778</v>
       </c>
       <c r="F19">
-        <v>111.4667035619822</v>
+        <v>64.19952119001192</v>
       </c>
       <c r="G19">
-        <v>1.58286367814406</v>
+        <v>1.841750190351805</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>62.68155895554975</v>
       </c>
       <c r="L19">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.60918463005212</v>
+      </c>
+      <c r="O19">
+        <v>51.24707468243791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.5538056100375</v>
+        <v>8.517931594974781</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.34626778562121</v>
+        <v>7.782475629217533</v>
       </c>
       <c r="E20">
-        <v>59.12741471344351</v>
+        <v>42.04052958874761</v>
       </c>
       <c r="F20">
-        <v>111.4667035619822</v>
+        <v>66.01920620909887</v>
       </c>
       <c r="G20">
-        <v>1.58286367814406</v>
+        <v>1.830304646882443</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>64.22234520149662</v>
       </c>
       <c r="L20">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.55944757183139</v>
+      </c>
+      <c r="O20">
+        <v>52.71650357790417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.5538056100375</v>
+        <v>9.060324040759403</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.34626778562121</v>
+        <v>8.65706570135659</v>
       </c>
       <c r="E21">
-        <v>59.12741471344351</v>
+        <v>46.32930611697225</v>
       </c>
       <c r="F21">
-        <v>111.4667035619822</v>
+        <v>72.38639117519075</v>
       </c>
       <c r="G21">
-        <v>1.58286367814406</v>
+        <v>1.788988993782099</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>69.5111401184685</v>
       </c>
       <c r="L21">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.38483780745745</v>
+      </c>
+      <c r="O21">
+        <v>57.8635179443013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.5538056100375</v>
+        <v>9.403151065306417</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.34626778562121</v>
+        <v>9.293165886163489</v>
       </c>
       <c r="E22">
-        <v>59.12741471344351</v>
+        <v>49.43346989693926</v>
       </c>
       <c r="F22">
-        <v>111.4667035619822</v>
+        <v>76.87178499295527</v>
       </c>
       <c r="G22">
-        <v>1.58286367814406</v>
+        <v>1.758656885139428</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>73.14359397361324</v>
       </c>
       <c r="L22">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.25930045457359</v>
+      </c>
+      <c r="O22">
+        <v>61.49572715125141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.5538056100375</v>
+        <v>9.221161973171982</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.34626778562121</v>
+        <v>8.945532471483968</v>
       </c>
       <c r="E23">
-        <v>59.12741471344351</v>
+        <v>47.7377970111029</v>
       </c>
       <c r="F23">
-        <v>111.4667035619822</v>
+        <v>74.43623935436727</v>
       </c>
       <c r="G23">
-        <v>1.58286367814406</v>
+        <v>1.775256355065832</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>71.18060681436357</v>
       </c>
       <c r="L23">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.32787821925004</v>
+      </c>
+      <c r="O23">
+        <v>59.52270755796126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.5538056100375</v>
+        <v>8.508854990880348</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.34626778562121</v>
+        <v>7.768891368689072</v>
       </c>
       <c r="E24">
-        <v>59.12741471344351</v>
+        <v>41.97360951296631</v>
       </c>
       <c r="F24">
-        <v>111.4667035619822</v>
+        <v>65.91857112354893</v>
       </c>
       <c r="G24">
-        <v>1.58286367814406</v>
+        <v>1.830941762377359</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>64.13747948223335</v>
       </c>
       <c r="L24">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>44.14749465965627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.56219692351422</v>
+      </c>
+      <c r="O24">
+        <v>52.63522332613578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.5538056100375</v>
+        <v>7.801532256783666</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.34626778562121</v>
+        <v>6.640663075375357</v>
       </c>
       <c r="E25">
-        <v>59.12741471344351</v>
+        <v>36.36913141793354</v>
       </c>
       <c r="F25">
-        <v>111.4667035619822</v>
+        <v>57.38760358305036</v>
       </c>
       <c r="G25">
-        <v>1.58286367814406</v>
+        <v>1.883216945988424</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.643017656152186</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>56.79354414936362</v>
       </c>
       <c r="L25">
-        <v>54.23033120269971</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>44.14749465965627</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.79703612415287</v>
+      </c>
+      <c r="O25">
+        <v>45.75057070103173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.284269282655775</v>
+        <v>8.077469543191691</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.852264543034051</v>
+        <v>4.443160712191941</v>
       </c>
       <c r="E2">
-        <v>32.38509398907831</v>
+        <v>29.92329248059224</v>
       </c>
       <c r="F2">
-        <v>51.24020596719202</v>
+        <v>14.80219136564073</v>
       </c>
       <c r="G2">
-        <v>1.918827290266414</v>
+        <v>17.46910074881099</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.969907756034768</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.79646062744178</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>51.30877670466999</v>
+        <v>18.91087084125532</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.97131443927002</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>40.79335654735583</v>
+        <v>11.04699679760421</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.919785913398756</v>
+        <v>7.593011549166826</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.323566084448474</v>
+        <v>4.238224209224001</v>
       </c>
       <c r="E3">
-        <v>29.6755193589617</v>
+        <v>27.76303458501862</v>
       </c>
       <c r="F3">
-        <v>47.04428605037377</v>
+        <v>14.33601943146514</v>
       </c>
       <c r="G3">
-        <v>1.942182639728968</v>
+        <v>16.76106815971712</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.014226899960556</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.10499289808332</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>47.46442054497702</v>
+        <v>17.86505017840487</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.0942017235874</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>37.40949052731769</v>
+        <v>10.95428616310807</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.689696554553148</v>
+        <v>7.278879004499296</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.997234644319038</v>
+        <v>4.106691094581336</v>
       </c>
       <c r="E4">
-        <v>27.98633554892877</v>
+        <v>26.37205667832956</v>
       </c>
       <c r="F4">
-        <v>44.42956173842965</v>
+        <v>14.06333747258327</v>
       </c>
       <c r="G4">
-        <v>1.956359564010348</v>
+        <v>16.34724561733955</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.048580739355291</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.30183075528874</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>45.02400359743074</v>
+        <v>17.1909762574981</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.17276504222304</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>35.2998801974762</v>
+        <v>10.91385795591487</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.594463266533883</v>
+        <v>7.146697293688897</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.863306316725782</v>
+        <v>4.051697320387664</v>
       </c>
       <c r="E5">
-        <v>27.28919826337584</v>
+        <v>25.78869043659431</v>
       </c>
       <c r="F5">
-        <v>43.35176749464368</v>
+        <v>13.95571911875026</v>
       </c>
       <c r="G5">
-        <v>1.962121167131088</v>
+        <v>16.18406187252441</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.064283611034098</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.38388704714594</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>44.00741283862749</v>
+        <v>16.9083802107591</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.20564232567648</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>34.4299513332064</v>
+        <v>10.90135326284701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.578564838161046</v>
+        <v>7.124497602225343</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.840997363949484</v>
+        <v>4.042482844282934</v>
       </c>
       <c r="E6">
-        <v>27.1728487570999</v>
+        <v>25.69081615113732</v>
       </c>
       <c r="F6">
-        <v>43.1719955624134</v>
+        <v>13.93806320981031</v>
       </c>
       <c r="G6">
-        <v>1.963077583085769</v>
+        <v>16.15729995574754</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.066991310852246</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.39762334729321</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>43.83722296026092</v>
+        <v>16.86098222677596</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.21115558184385</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>34.28482658027633</v>
+        <v>10.8995112313119</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.688417990213058</v>
+        <v>7.277113203857246</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.995432875249111</v>
+        <v>4.105955010398633</v>
       </c>
       <c r="E7">
-        <v>27.97697203851272</v>
+        <v>26.36425651062663</v>
       </c>
       <c r="F7">
-        <v>44.41507888707969</v>
+        <v>14.06187179845113</v>
       </c>
       <c r="G7">
-        <v>1.956437300266181</v>
+        <v>16.34502254437375</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.048785736185029</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.30292995099042</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>45.01038533395395</v>
+        <v>17.1871968866118</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.17320485598556</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>35.2881920653703</v>
+        <v>10.9136734818807</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.159962248280097</v>
+        <v>7.913899635058651</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.669976748830325</v>
+        <v>4.373704152853501</v>
       </c>
       <c r="E8">
-        <v>31.45452183071568</v>
+        <v>29.19165447268736</v>
       </c>
       <c r="F8">
-        <v>49.79962165076331</v>
+        <v>14.63870268912654</v>
       </c>
       <c r="G8">
-        <v>1.926931245106984</v>
+        <v>17.22075079886086</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.983649996690904</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.90129553037674</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>49.99850239483142</v>
+        <v>18.55696476006018</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.01309635791129</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>39.6316980712148</v>
+        <v>11.01150294407322</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.031019675699559</v>
+        <v>9.029798417095842</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.010488072223239</v>
+        <v>4.852075362654213</v>
       </c>
       <c r="E9">
-        <v>38.2173994810252</v>
+        <v>34.23808652104938</v>
       </c>
       <c r="F9">
-        <v>60.2204791651976</v>
+        <v>15.87293144840992</v>
       </c>
       <c r="G9">
-        <v>1.866233235989445</v>
+        <v>19.09522238083413</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.916907453615662</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.17341193977064</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>59.26562466011616</v>
+        <v>20.98582779232222</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.71844474092654</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>48.03573044327052</v>
+        <v>11.34152042299192</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.706318929961183</v>
+        <v>9.768453524684508</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.071509192780404</v>
+        <v>5.173548212332012</v>
       </c>
       <c r="E10">
-        <v>43.46187741897735</v>
+        <v>37.66355965494721</v>
       </c>
       <c r="F10">
-        <v>68.14806588927269</v>
+        <v>16.83676743792178</v>
       </c>
       <c r="G10">
-        <v>1.816712376214634</v>
+        <v>20.55733603634363</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.911231972110887</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.67695667682243</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>66.00823262119718</v>
+        <v>22.61028681064266</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.50127122712552</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>54.43639247939138</v>
+        <v>11.677131372092</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.025882096848335</v>
+        <v>10.08692312403887</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.597296833260424</v>
+        <v>5.313059234593671</v>
       </c>
       <c r="E11">
-        <v>46.03720738971076</v>
+        <v>39.16592998725606</v>
       </c>
       <c r="F11">
-        <v>71.95847440153203</v>
+        <v>17.2865829305359</v>
       </c>
       <c r="G11">
-        <v>1.7918287606714</v>
+        <v>21.23913063028163</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.91946275756983</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.46003650578991</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>69.16061298763877</v>
+        <v>23.31433237336824</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.39666108799334</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>57.51729997503654</v>
+        <v>11.85164724699709</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.144866477938505</v>
+        <v>10.20500602610272</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.806696380347233</v>
+        <v>5.364907236768128</v>
       </c>
       <c r="E12">
-        <v>47.06014026439077</v>
+        <v>39.7272916338724</v>
       </c>
       <c r="F12">
-        <v>73.45288212812463</v>
+        <v>17.45848350314399</v>
       </c>
       <c r="G12">
-        <v>1.78187103695808</v>
+        <v>21.50460340469656</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.924253644191111</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.37924583558465</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>70.38171665600329</v>
+        <v>23.57591835228357</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.35527539695639</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>58.72660909282617</v>
+        <v>11.92098714841575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.119327603419402</v>
+        <v>10.17968642229202</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.761044537009459</v>
+        <v>5.35378469874942</v>
       </c>
       <c r="E13">
-        <v>46.83722511392892</v>
+        <v>39.60672002777603</v>
       </c>
       <c r="F13">
-        <v>73.12822915941503</v>
+        <v>17.42139288574418</v>
       </c>
       <c r="G13">
-        <v>1.784043965753223</v>
+        <v>21.44340590484458</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.923145458075678</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.39658412769092</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>70.11716044193643</v>
+        <v>23.51980422844002</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.36429000501258</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>58.46384009886039</v>
+        <v>11.9059071195166</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.035710377047971</v>
+        <v>10.09668820961966</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.614284577556594</v>
+        <v>5.31734454724158</v>
       </c>
       <c r="E14">
-        <v>46.12023981654378</v>
+        <v>39.21226196995903</v>
       </c>
       <c r="F14">
-        <v>72.08020911615007</v>
+        <v>17.30069424082323</v>
       </c>
       <c r="G14">
-        <v>1.791021839207106</v>
+        <v>21.26051444489599</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.919822662943161</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.45336225099659</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>69.26040293686501</v>
+        <v>23.33595376439487</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.39329962178497</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>57.61578787341328</v>
+        <v>11.85728604491721</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.984234783954008</v>
+        <v>10.04552224985653</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.52589775561195</v>
+        <v>5.29489567844043</v>
       </c>
       <c r="E15">
-        <v>45.68812329990756</v>
+        <v>38.96967659750912</v>
       </c>
       <c r="F15">
-        <v>71.44587067591215</v>
+        <v>17.22696500314189</v>
       </c>
       <c r="G15">
-        <v>1.795218375339138</v>
+        <v>21.1487844339234</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.918008954881868</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.48831893686425</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>68.73979251039911</v>
+        <v>23.22268652761575</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.41079885932964</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>57.10262713075122</v>
+        <v>11.82793125097513</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.685140249860009</v>
+        <v>9.747288342591979</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.038310737538739</v>
+        <v>5.164294148207966</v>
       </c>
       <c r="E16">
-        <v>43.29885276499117</v>
+        <v>37.56429171470978</v>
       </c>
       <c r="F16">
-        <v>67.90475604981233</v>
+        <v>16.80759322340285</v>
       </c>
       <c r="G16">
-        <v>1.818276982421001</v>
+        <v>20.51310468701169</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.91092177455862</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.69131800953772</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>65.80502430352296</v>
+        <v>22.56357270614985</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.50792438935814</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>54.23977743473228</v>
+        <v>11.66617585317315</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.497844714450155</v>
+        <v>9.559842085623792</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.752453164496089</v>
+        <v>5.082439763154583</v>
       </c>
       <c r="E17">
-        <v>41.89261500751434</v>
+        <v>36.68814648296739</v>
       </c>
       <c r="F17">
-        <v>65.79672442641625</v>
+        <v>16.55317694592115</v>
       </c>
       <c r="G17">
-        <v>1.831712516896902</v>
+        <v>20.1273175395834</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.909427296852866</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.81818070409477</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>64.03467208857134</v>
+        <v>22.15027766611168</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.56552586287771</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>52.53681355725177</v>
+        <v>11.57262326518286</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.388668809014245</v>
+        <v>9.450375456230089</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.591759744925956</v>
+        <v>5.03472657498041</v>
       </c>
       <c r="E18">
-        <v>41.09994713917061</v>
+        <v>36.17891806277268</v>
       </c>
       <c r="F18">
-        <v>64.60164644795765</v>
+        <v>16.40791579739848</v>
       </c>
       <c r="G18">
-        <v>1.839234469565285</v>
+        <v>19.90699587287559</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.909578123522099</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.89198332451687</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>63.02319287247382</v>
+        <v>21.90927238381179</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.59818721893166</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>51.57174838135973</v>
+        <v>11.52086443942101</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.351451059464923</v>
+        <v>9.413027907780455</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.537902881794187</v>
+        <v>5.018463530441924</v>
       </c>
       <c r="E19">
-        <v>40.83390396201778</v>
+        <v>36.00557907878118</v>
       </c>
       <c r="F19">
-        <v>64.19952119001192</v>
+        <v>16.35891947576048</v>
       </c>
       <c r="G19">
-        <v>1.841750190351805</v>
+        <v>19.83267279654945</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.909799144075667</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.91711308635734</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>62.68155895554975</v>
+        <v>21.82710747565173</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.60918463005212</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>51.24707468243791</v>
+        <v>11.5036882723434</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.517931594974781</v>
+        <v>9.579967034431487</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.782475629217533</v>
+        <v>5.091218899158499</v>
       </c>
       <c r="E20">
-        <v>42.04052958874761</v>
+        <v>36.78195808303224</v>
       </c>
       <c r="F20">
-        <v>66.01920620909887</v>
+        <v>16.58014957117811</v>
       </c>
       <c r="G20">
-        <v>1.830304646882443</v>
+        <v>20.16822335084999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.909480958299481</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.80458912551226</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>64.22234520149662</v>
+        <v>22.1946140559597</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.55944757183139</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>52.71650357790417</v>
+        <v>11.58236906044609</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.060324040759403</v>
+        <v>10.12113495553112</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.65706570135659</v>
+        <v>5.328074645585926</v>
       </c>
       <c r="E21">
-        <v>46.32930611697225</v>
+        <v>39.32832474250147</v>
       </c>
       <c r="F21">
-        <v>72.38639117519075</v>
+        <v>17.33610431849748</v>
       </c>
       <c r="G21">
-        <v>1.788988993782099</v>
+        <v>21.3141724747758</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.920752250549632</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.43664780470777</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>69.5111401184685</v>
+        <v>23.3900912688428</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.38483780745745</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>57.8635179443013</v>
+        <v>11.87147805491923</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.403151065306417</v>
+        <v>10.46016874789655</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.293165886163489</v>
+        <v>5.477146573632098</v>
       </c>
       <c r="E22">
-        <v>49.43346989693926</v>
+        <v>40.94875943868536</v>
       </c>
       <c r="F22">
-        <v>76.87178499295527</v>
+        <v>17.83927210261599</v>
       </c>
       <c r="G22">
-        <v>1.758656885139428</v>
+        <v>22.13836539935692</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.937933695133363</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.20410345108811</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>73.14359397361324</v>
+        <v>24.14215186746042</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.25930045457359</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>61.49572715125141</v>
+        <v>12.07944324183045</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.221161973171982</v>
+        <v>10.28055679678148</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.945532471483968</v>
+        <v>5.398111962284823</v>
       </c>
       <c r="E23">
-        <v>47.7377970111029</v>
+        <v>40.08773328136623</v>
       </c>
       <c r="F23">
-        <v>74.43623935436727</v>
+        <v>17.56990548753925</v>
       </c>
       <c r="G23">
-        <v>1.775256355065832</v>
+        <v>21.69047703761339</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.927825450905425</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.32746414766567</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>71.18060681436357</v>
+        <v>23.74343480332533</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.32787821925004</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>59.52270755796126</v>
+        <v>11.96667347583201</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.508854990880348</v>
+        <v>9.570873844809556</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.768891368689072</v>
+        <v>5.087251887757892</v>
       </c>
       <c r="E24">
-        <v>41.97360951296631</v>
+        <v>36.73956309078471</v>
       </c>
       <c r="F24">
-        <v>65.91857112354893</v>
+        <v>16.56795210783547</v>
       </c>
       <c r="G24">
-        <v>1.830941762377359</v>
+        <v>20.14972523851506</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.909453560966643</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.81073118096314</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>64.13747948223335</v>
+        <v>22.17458015327635</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.56219692351422</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>52.63522332613578</v>
+        <v>11.57795668516881</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.801532256783666</v>
+        <v>8.742184087503603</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.640663075375357</v>
+        <v>4.727838761475348</v>
       </c>
       <c r="E25">
-        <v>36.36913141793354</v>
+        <v>32.92410479289633</v>
       </c>
       <c r="F25">
-        <v>57.38760358305036</v>
+        <v>15.52862193786792</v>
       </c>
       <c r="G25">
-        <v>1.883216945988424</v>
+        <v>18.57249133752691</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.927809628559499</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.36376391759531</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>56.79354414936362</v>
+        <v>20.35671834547349</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.79703612415287</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>45.75057070103173</v>
+        <v>11.2364740148767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.077469543191691</v>
+        <v>6.677490187444684</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.443160712191941</v>
+        <v>3.837303855917068</v>
       </c>
       <c r="E2">
-        <v>29.92329248059224</v>
+        <v>16.58317341930333</v>
       </c>
       <c r="F2">
-        <v>14.80219136564073</v>
+        <v>18.72891597484025</v>
       </c>
       <c r="G2">
-        <v>17.46910074881099</v>
+        <v>19.32121463004367</v>
       </c>
       <c r="H2">
-        <v>6.969907756034768</v>
+        <v>11.81178719602177</v>
       </c>
       <c r="I2">
-        <v>11.79646062744178</v>
+        <v>17.95775239994621</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.91087084125532</v>
+        <v>12.41835138854054</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.04699679760421</v>
+        <v>16.71993153412754</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.593011549166826</v>
+        <v>6.516664457825418</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.238224209224001</v>
+        <v>3.753607368066372</v>
       </c>
       <c r="E3">
-        <v>27.76303458501862</v>
+        <v>15.63784156558004</v>
       </c>
       <c r="F3">
-        <v>14.33601943146514</v>
+        <v>18.74085985622836</v>
       </c>
       <c r="G3">
-        <v>16.76106815971712</v>
+        <v>19.31289239607152</v>
       </c>
       <c r="H3">
-        <v>7.014226899960556</v>
+        <v>11.86246803330413</v>
       </c>
       <c r="I3">
-        <v>12.10499289808332</v>
+        <v>18.07193712749438</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.86505017840487</v>
+        <v>11.89613629296124</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.95428616310807</v>
+        <v>16.79104181059758</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.278879004499296</v>
+        <v>6.416440836923975</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.106691094581336</v>
+        <v>3.700721285431267</v>
       </c>
       <c r="E4">
-        <v>26.37205667832956</v>
+        <v>15.03195387295727</v>
       </c>
       <c r="F4">
-        <v>14.06333747258327</v>
+        <v>18.75532428746634</v>
       </c>
       <c r="G4">
-        <v>16.34724561733955</v>
+        <v>19.31845628124648</v>
       </c>
       <c r="H4">
-        <v>7.048580739355291</v>
+        <v>11.8960772284795</v>
       </c>
       <c r="I4">
-        <v>12.30183075528874</v>
+        <v>18.14599054324907</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.1909762574981</v>
+        <v>11.56172679841083</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.91385795591487</v>
+        <v>16.83993333260222</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.146697293688897</v>
+        <v>6.375283164120018</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.051697320387664</v>
+        <v>3.678811801350371</v>
       </c>
       <c r="E5">
-        <v>25.78869043659431</v>
+        <v>14.77891697539674</v>
       </c>
       <c r="F5">
-        <v>13.95571911875026</v>
+        <v>18.76300565788661</v>
       </c>
       <c r="G5">
-        <v>16.18406187252441</v>
+        <v>19.32339455225744</v>
       </c>
       <c r="H5">
-        <v>7.064283611034098</v>
+        <v>11.91039854198856</v>
       </c>
       <c r="I5">
-        <v>12.38388704714594</v>
+        <v>18.17716133424684</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.9083802107591</v>
+        <v>11.42212127673689</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.90135326284701</v>
+        <v>16.86116515558683</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.124497602225343</v>
+        <v>6.368431566706157</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.042482844282934</v>
+        <v>3.675152680827797</v>
       </c>
       <c r="E6">
-        <v>25.69081615113732</v>
+        <v>14.73653883627358</v>
       </c>
       <c r="F6">
-        <v>13.93806320981031</v>
+        <v>18.76438886584894</v>
       </c>
       <c r="G6">
-        <v>16.15729995574754</v>
+        <v>19.32437540783221</v>
       </c>
       <c r="H6">
-        <v>7.066991310852246</v>
+        <v>11.91281432008936</v>
       </c>
       <c r="I6">
-        <v>12.39762334729321</v>
+        <v>18.18239727405659</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.86098222677596</v>
+        <v>11.39874290258496</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.8995112313119</v>
+        <v>16.86476948722092</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.277113203857246</v>
+        <v>6.415886973333258</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.105955010398633</v>
+        <v>3.700427231049813</v>
       </c>
       <c r="E7">
-        <v>26.36425651062663</v>
+        <v>15.02856576850157</v>
       </c>
       <c r="F7">
-        <v>14.06187179845113</v>
+        <v>18.75542065486362</v>
       </c>
       <c r="G7">
-        <v>16.34502254437375</v>
+        <v>19.31851208620941</v>
       </c>
       <c r="H7">
-        <v>7.048785736185029</v>
+        <v>11.89626784037142</v>
       </c>
       <c r="I7">
-        <v>12.30292995099042</v>
+        <v>18.14640689870381</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.1871968866118</v>
+        <v>11.55985732955716</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.9136734818807</v>
+        <v>16.84021438507557</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.913899635058651</v>
+        <v>6.62237619819524</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.373704152853501</v>
+        <v>3.808766427423032</v>
       </c>
       <c r="E8">
-        <v>29.19165447268736</v>
+        <v>16.26264962500409</v>
       </c>
       <c r="F8">
-        <v>14.63870268912654</v>
+        <v>18.73155100026782</v>
       </c>
       <c r="G8">
-        <v>17.22075079886086</v>
+        <v>19.31612314805637</v>
       </c>
       <c r="H8">
-        <v>6.983649996690904</v>
+        <v>11.82874430181026</v>
       </c>
       <c r="I8">
-        <v>11.90129553037674</v>
+        <v>17.99630588536043</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.55696476006018</v>
+        <v>12.24122194264354</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.01150294407322</v>
+        <v>16.74336088660716</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.029798417095842</v>
+        <v>7.013301072452585</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.852075362654213</v>
+        <v>4.008603110282069</v>
       </c>
       <c r="E9">
-        <v>34.23808652104938</v>
+        <v>18.58489426020654</v>
       </c>
       <c r="F9">
-        <v>15.87293144840992</v>
+        <v>18.74152470894693</v>
       </c>
       <c r="G9">
-        <v>19.09522238083413</v>
+        <v>19.39651385105241</v>
       </c>
       <c r="H9">
-        <v>6.916907453615662</v>
+        <v>11.71614383585022</v>
       </c>
       <c r="I9">
-        <v>11.17341193977064</v>
+        <v>17.73316748759724</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.98582779232222</v>
+        <v>13.46328110769473</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.34152042299192</v>
+        <v>16.59522515730738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.768453524684508</v>
+        <v>7.289133639242711</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.173548212332012</v>
+        <v>4.146813051990575</v>
       </c>
       <c r="E10">
-        <v>37.66355965494721</v>
+        <v>20.23478008578898</v>
       </c>
       <c r="F10">
-        <v>16.83676743792178</v>
+        <v>18.78363885939404</v>
       </c>
       <c r="G10">
-        <v>20.55733603634363</v>
+        <v>19.50767108228434</v>
       </c>
       <c r="H10">
-        <v>6.911231972110887</v>
+        <v>11.64556131491208</v>
       </c>
       <c r="I10">
-        <v>10.67695667682243</v>
+        <v>17.55875364878695</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.61028681064266</v>
+        <v>14.28617571097491</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.677131372092</v>
+        <v>16.51226628770436</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.08692312403887</v>
+        <v>7.411609700989348</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.313059234593671</v>
+        <v>4.207646512138255</v>
       </c>
       <c r="E11">
-        <v>39.16592998725606</v>
+        <v>20.94282329481781</v>
       </c>
       <c r="F11">
-        <v>17.2865829305359</v>
+        <v>18.81035273388329</v>
       </c>
       <c r="G11">
-        <v>21.23913063028163</v>
+        <v>19.56950896105233</v>
       </c>
       <c r="H11">
-        <v>6.91946275756983</v>
+        <v>11.61610323765046</v>
       </c>
       <c r="I11">
-        <v>10.46003650578991</v>
+        <v>17.48349237826131</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.31433237336824</v>
+        <v>14.64338915665895</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.85164724699709</v>
+        <v>16.48022569232797</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.20500602610272</v>
+        <v>7.457516396498945</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.364907236768128</v>
+        <v>4.230376406652899</v>
       </c>
       <c r="E12">
-        <v>39.7272916338724</v>
+        <v>21.20486594294235</v>
       </c>
       <c r="F12">
-        <v>17.45848350314399</v>
+        <v>18.82155241334333</v>
       </c>
       <c r="G12">
-        <v>21.50460340469656</v>
+        <v>19.59453597505802</v>
       </c>
       <c r="H12">
-        <v>6.924253644191111</v>
+        <v>11.60533060112973</v>
       </c>
       <c r="I12">
-        <v>10.37924583558465</v>
+        <v>17.45557808455405</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.57591835228357</v>
+        <v>14.77613643665805</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.92098714841575</v>
+        <v>16.46891834222604</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.17968642229202</v>
+        <v>7.447651187951034</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.35378469874942</v>
+        <v>4.225494944272632</v>
       </c>
       <c r="E13">
-        <v>39.60672002777603</v>
+        <v>21.14870016183494</v>
       </c>
       <c r="F13">
-        <v>17.42139288574418</v>
+        <v>18.81909222694927</v>
       </c>
       <c r="G13">
-        <v>21.44340590484458</v>
+        <v>19.58907455240141</v>
       </c>
       <c r="H13">
-        <v>6.923145458075678</v>
+        <v>11.60763364716225</v>
       </c>
       <c r="I13">
-        <v>10.39658412769092</v>
+        <v>17.46156390536386</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.51980422844002</v>
+        <v>14.74765992616947</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.9059071195166</v>
+        <v>16.47131675920966</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.09668820961966</v>
+        <v>7.415396159964348</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.31734454724158</v>
+        <v>4.209522727207364</v>
       </c>
       <c r="E14">
-        <v>39.21226196995903</v>
+        <v>20.96450332282399</v>
       </c>
       <c r="F14">
-        <v>17.30069424082323</v>
+        <v>18.81125244135595</v>
       </c>
       <c r="G14">
-        <v>21.26051444489599</v>
+        <v>19.5715357503395</v>
       </c>
       <c r="H14">
-        <v>6.919822662943161</v>
+        <v>11.6152092925191</v>
       </c>
       <c r="I14">
-        <v>10.45336225099659</v>
+        <v>17.4811841248262</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.33595376439487</v>
+        <v>14.65436119786383</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.85728604491721</v>
+        <v>16.47927884543056</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.04552224985653</v>
+        <v>7.395576361470837</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.29489567844043</v>
+        <v>4.199699004501046</v>
       </c>
       <c r="E15">
-        <v>38.96967659750912</v>
+        <v>20.85088689426097</v>
       </c>
       <c r="F15">
-        <v>17.22696500314189</v>
+        <v>18.8065913644638</v>
       </c>
       <c r="G15">
-        <v>21.1487844339234</v>
+        <v>19.56100205682754</v>
       </c>
       <c r="H15">
-        <v>6.918008954881868</v>
+        <v>11.61989944807773</v>
       </c>
       <c r="I15">
-        <v>10.48831893686425</v>
+        <v>17.49327829128863</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.22268652761575</v>
+        <v>14.59688304588987</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.82793125097513</v>
+        <v>16.48426357206602</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.747288342591979</v>
+        <v>7.281065584860932</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.164294148207966</v>
+        <v>4.142795259076922</v>
       </c>
       <c r="E16">
-        <v>37.56429171470978</v>
+        <v>20.1876554719381</v>
       </c>
       <c r="F16">
-        <v>16.80759322340285</v>
+        <v>18.78204488855399</v>
       </c>
       <c r="G16">
-        <v>20.51310468701169</v>
+        <v>19.50385584906105</v>
       </c>
       <c r="H16">
-        <v>6.91092177455862</v>
+        <v>11.64753991851864</v>
       </c>
       <c r="I16">
-        <v>10.69131800953772</v>
+        <v>17.5637541508313</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.56357270614985</v>
+        <v>14.2624810881243</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.66617585317315</v>
+        <v>16.51447542313968</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.559842085623792</v>
+        <v>7.210018128482217</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.082439763154583</v>
+        <v>4.107354685804505</v>
       </c>
       <c r="E17">
-        <v>36.68814648296739</v>
+        <v>19.76992340524036</v>
       </c>
       <c r="F17">
-        <v>16.55317694592115</v>
+        <v>18.76892022672663</v>
       </c>
       <c r="G17">
-        <v>20.1273175395834</v>
+        <v>19.4716793854253</v>
       </c>
       <c r="H17">
-        <v>6.909427296852866</v>
+        <v>11.66517623654662</v>
       </c>
       <c r="I17">
-        <v>10.81818070409477</v>
+        <v>17.60803300220001</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.15027766611168</v>
+        <v>14.05290486020943</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.57262326518286</v>
+        <v>16.5344733964659</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.450375456230089</v>
+        <v>7.168873209009859</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.03472657498041</v>
+        <v>4.086779012193123</v>
       </c>
       <c r="E18">
-        <v>36.17891806277268</v>
+        <v>19.52565287248186</v>
       </c>
       <c r="F18">
-        <v>16.40791579739848</v>
+        <v>18.76208274873292</v>
       </c>
       <c r="G18">
-        <v>19.90699587287559</v>
+        <v>19.45423420725439</v>
       </c>
       <c r="H18">
-        <v>6.909578123522099</v>
+        <v>11.67556955171718</v>
       </c>
       <c r="I18">
-        <v>10.89198332451687</v>
+        <v>17.63388516911878</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.90927238381179</v>
+        <v>13.93075308455153</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.52086443942101</v>
+        <v>16.54651164159019</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.413027907780455</v>
+        <v>7.154895399666539</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.018463530441924</v>
+        <v>4.079780025486529</v>
       </c>
       <c r="E19">
-        <v>36.00557907878118</v>
+        <v>19.44225868683073</v>
       </c>
       <c r="F19">
-        <v>16.35891947576048</v>
+        <v>18.75988995090074</v>
       </c>
       <c r="G19">
-        <v>19.83267279654945</v>
+        <v>19.44851019746398</v>
       </c>
       <c r="H19">
-        <v>6.909799144075667</v>
+        <v>11.67913133719182</v>
       </c>
       <c r="I19">
-        <v>10.91711308635734</v>
+        <v>17.64270428466245</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.82710747565173</v>
+        <v>13.88912019589429</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.5036882723434</v>
+        <v>16.55067943347811</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.579967034431487</v>
+        <v>7.217610567218362</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.091218899158499</v>
+        <v>4.111147282265949</v>
       </c>
       <c r="E20">
-        <v>36.78195808303224</v>
+        <v>19.81480565740025</v>
       </c>
       <c r="F20">
-        <v>16.58014957117811</v>
+        <v>18.77024374866521</v>
       </c>
       <c r="G20">
-        <v>20.16822335084999</v>
+        <v>19.47499478760468</v>
       </c>
       <c r="H20">
-        <v>6.909480958299481</v>
+        <v>11.66327300128529</v>
       </c>
       <c r="I20">
-        <v>10.80458912551226</v>
+        <v>17.60327969479368</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.1946140559597</v>
+        <v>14.07538159953602</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.58236906044609</v>
+        <v>16.53228906308157</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.12113495553112</v>
+        <v>7.424883370336333</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.328074645585926</v>
+        <v>4.214222570643664</v>
       </c>
       <c r="E21">
-        <v>39.32832474250147</v>
+        <v>21.01877108954127</v>
       </c>
       <c r="F21">
-        <v>17.33610431849748</v>
+        <v>18.81352579584545</v>
       </c>
       <c r="G21">
-        <v>21.3141724747758</v>
+        <v>19.57664372244129</v>
       </c>
       <c r="H21">
-        <v>6.920752250549632</v>
+        <v>11.61297374980512</v>
       </c>
       <c r="I21">
-        <v>10.43664780470777</v>
+        <v>17.4754053096613</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.3900912688428</v>
+        <v>14.6818341569681</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.87147805491923</v>
+        <v>16.47691772817643</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.46016874789655</v>
+        <v>7.557578483415036</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.477146573632098</v>
+        <v>4.279796814715268</v>
       </c>
       <c r="E22">
-        <v>40.94875943868536</v>
+        <v>21.77022041731249</v>
       </c>
       <c r="F22">
-        <v>17.83927210261599</v>
+        <v>18.8481272959736</v>
       </c>
       <c r="G22">
-        <v>22.13836539935692</v>
+        <v>19.65245564189202</v>
       </c>
       <c r="H22">
-        <v>6.937933695133363</v>
+        <v>11.58233042523464</v>
       </c>
       <c r="I22">
-        <v>10.20410345108811</v>
+        <v>17.3952443095574</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.14215186746042</v>
+        <v>15.06346674700515</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.07944324183045</v>
+        <v>16.44554509261397</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.28055679678148</v>
+        <v>7.487022615496105</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.398111962284823</v>
+        <v>4.244966613989486</v>
       </c>
       <c r="E23">
-        <v>40.08773328136623</v>
+        <v>21.37238702119899</v>
       </c>
       <c r="F23">
-        <v>17.56990548753925</v>
+        <v>18.8290834589671</v>
       </c>
       <c r="G23">
-        <v>21.69047703761339</v>
+        <v>19.61113984881342</v>
       </c>
       <c r="H23">
-        <v>6.927825450905425</v>
+        <v>11.59848082333388</v>
       </c>
       <c r="I23">
-        <v>10.32746414766567</v>
+        <v>17.43771591369357</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.74343480332533</v>
+        <v>14.86114612991531</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.96667347583201</v>
+        <v>16.46184658273177</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.570873844809556</v>
+        <v>7.214178953215169</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.087251887757892</v>
+        <v>4.10943327263101</v>
       </c>
       <c r="E24">
-        <v>36.73956309078471</v>
+        <v>19.79452719853556</v>
       </c>
       <c r="F24">
-        <v>16.56795210783547</v>
+        <v>18.7696431785769</v>
       </c>
       <c r="G24">
-        <v>20.14972523851506</v>
+        <v>19.47349261188074</v>
       </c>
       <c r="H24">
-        <v>6.909453560966643</v>
+        <v>11.66413266293914</v>
       </c>
       <c r="I24">
-        <v>10.81073118096314</v>
+        <v>17.60542743249285</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.17458015327635</v>
+        <v>14.06522504295823</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.57795668516881</v>
+        <v>16.53327491499684</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.742184087503603</v>
+        <v>6.909350745355206</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.727838761475348</v>
+        <v>3.95599183782751</v>
       </c>
       <c r="E25">
-        <v>32.92410479289633</v>
+        <v>17.93940150751057</v>
       </c>
       <c r="F25">
-        <v>15.52862193786792</v>
+        <v>18.73272347265279</v>
       </c>
       <c r="G25">
-        <v>18.57249133752691</v>
+        <v>19.36561741493569</v>
       </c>
       <c r="H25">
-        <v>6.927809628559499</v>
+        <v>11.74447730780411</v>
       </c>
       <c r="I25">
-        <v>11.36376391759531</v>
+        <v>17.80102404223196</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.35671834547349</v>
+        <v>13.14550905988707</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.2364740148767</v>
+        <v>16.63078356446546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.677490187444684</v>
+        <v>8.077469543191684</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.837303855917068</v>
+        <v>4.443160712191876</v>
       </c>
       <c r="E2">
-        <v>16.58317341930333</v>
+        <v>29.92329248059232</v>
       </c>
       <c r="F2">
-        <v>18.72891597484025</v>
+        <v>14.80219136564075</v>
       </c>
       <c r="G2">
-        <v>19.32121463004367</v>
+        <v>17.46910074881104</v>
       </c>
       <c r="H2">
-        <v>11.81178719602177</v>
+        <v>6.969907756034618</v>
       </c>
       <c r="I2">
-        <v>17.95775239994621</v>
+        <v>11.79646062744178</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.41835138854054</v>
+        <v>18.91087084125535</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.71993153412754</v>
+        <v>11.04699679760418</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.516664457825418</v>
+        <v>7.593011549166835</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.753607368066372</v>
+        <v>4.23822420922396</v>
       </c>
       <c r="E3">
-        <v>15.63784156558004</v>
+        <v>27.76303458501858</v>
       </c>
       <c r="F3">
-        <v>18.74085985622836</v>
+        <v>14.3360194314651</v>
       </c>
       <c r="G3">
-        <v>19.31289239607152</v>
+        <v>16.76106815971708</v>
       </c>
       <c r="H3">
-        <v>11.86246803330413</v>
+        <v>7.014226899960494</v>
       </c>
       <c r="I3">
-        <v>18.07193712749438</v>
+        <v>12.10499289808333</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.89613629296124</v>
+        <v>17.86505017840497</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.79104181059758</v>
+        <v>10.95428616310797</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.416440836923975</v>
+        <v>7.278879004499301</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.700721285431267</v>
+        <v>4.106691094581372</v>
       </c>
       <c r="E4">
-        <v>15.03195387295727</v>
+        <v>26.37205667832954</v>
       </c>
       <c r="F4">
-        <v>18.75532428746634</v>
+        <v>14.06333747258318</v>
       </c>
       <c r="G4">
-        <v>19.31845628124648</v>
+        <v>16.34724561733942</v>
       </c>
       <c r="H4">
-        <v>11.8960772284795</v>
+        <v>7.048580739355237</v>
       </c>
       <c r="I4">
-        <v>18.14599054324907</v>
+        <v>12.30183075528865</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.56172679841083</v>
+        <v>17.19097625749814</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.83993333260222</v>
+        <v>10.91385795591479</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.375283164120018</v>
+        <v>7.146697293688884</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.678811801350371</v>
+        <v>4.051697320387839</v>
       </c>
       <c r="E5">
-        <v>14.77891697539674</v>
+        <v>25.78869043659445</v>
       </c>
       <c r="F5">
-        <v>18.76300565788661</v>
+        <v>13.95571911875018</v>
       </c>
       <c r="G5">
-        <v>19.32339455225744</v>
+        <v>16.18406187252443</v>
       </c>
       <c r="H5">
-        <v>11.91039854198856</v>
+        <v>7.064283611034106</v>
       </c>
       <c r="I5">
-        <v>18.17716133424684</v>
+        <v>12.3838870471459</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.42212127673689</v>
+        <v>16.90838021075902</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.86116515558683</v>
+        <v>10.90135326284704</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.368431566706157</v>
+        <v>7.124497602225269</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.675152680827797</v>
+        <v>4.042482844282928</v>
       </c>
       <c r="E6">
-        <v>14.73653883627358</v>
+        <v>25.69081615113727</v>
       </c>
       <c r="F6">
-        <v>18.76438886584894</v>
+        <v>13.93806320981019</v>
       </c>
       <c r="G6">
-        <v>19.32437540783221</v>
+        <v>16.15729995574749</v>
       </c>
       <c r="H6">
-        <v>11.91281432008936</v>
+        <v>7.066991310852233</v>
       </c>
       <c r="I6">
-        <v>18.18239727405659</v>
+        <v>12.39762334729329</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.39874290258496</v>
+        <v>16.860982226776</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.86476948722092</v>
+        <v>10.89951123131186</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.415886973333258</v>
+        <v>7.277113203857234</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.700427231049813</v>
+        <v>4.10595501039866</v>
       </c>
       <c r="E7">
-        <v>15.02856576850157</v>
+        <v>26.36425651062664</v>
       </c>
       <c r="F7">
-        <v>18.75542065486362</v>
+        <v>14.06187179845094</v>
       </c>
       <c r="G7">
-        <v>19.31851208620941</v>
+        <v>16.34502254437352</v>
       </c>
       <c r="H7">
-        <v>11.89626784037142</v>
+        <v>7.048785736184858</v>
       </c>
       <c r="I7">
-        <v>18.14640689870381</v>
+        <v>12.30292995099032</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.55985732955716</v>
+        <v>17.18719688661186</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.84021438507557</v>
+        <v>10.9136734818805</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.62237619819524</v>
+        <v>7.913899635058684</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.808766427423032</v>
+        <v>4.373704152853546</v>
       </c>
       <c r="E8">
-        <v>16.26264962500409</v>
+        <v>29.19165447268738</v>
       </c>
       <c r="F8">
-        <v>18.73155100026782</v>
+        <v>14.63870268912643</v>
       </c>
       <c r="G8">
-        <v>19.31612314805637</v>
+        <v>17.22075079886068</v>
       </c>
       <c r="H8">
-        <v>11.82874430181026</v>
+        <v>6.983649996690799</v>
       </c>
       <c r="I8">
-        <v>17.99630588536043</v>
+        <v>11.90129553037675</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.24122194264354</v>
+        <v>18.55696476006027</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.74336088660716</v>
+        <v>11.01150294407311</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.013301072452585</v>
+        <v>9.029798417095849</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.008603110282069</v>
+        <v>4.852075362654063</v>
       </c>
       <c r="E9">
-        <v>18.58489426020654</v>
+        <v>34.23808652104928</v>
       </c>
       <c r="F9">
-        <v>18.74152470894693</v>
+        <v>15.87293144840987</v>
       </c>
       <c r="G9">
-        <v>19.39651385105241</v>
+        <v>19.09522238083405</v>
       </c>
       <c r="H9">
-        <v>11.71614383585022</v>
+        <v>6.916907453615619</v>
       </c>
       <c r="I9">
-        <v>17.73316748759724</v>
+        <v>11.17341193977065</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.46328110769473</v>
+        <v>20.98582779232234</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.59522515730738</v>
+        <v>11.34152042299182</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.289133639242711</v>
+        <v>9.768453524684572</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.146813051990575</v>
+        <v>5.173548212332074</v>
       </c>
       <c r="E10">
-        <v>20.23478008578898</v>
+        <v>37.66355965494724</v>
       </c>
       <c r="F10">
-        <v>18.78363885939404</v>
+        <v>16.83676743792174</v>
       </c>
       <c r="G10">
-        <v>19.50767108228434</v>
+        <v>20.55733603634359</v>
       </c>
       <c r="H10">
-        <v>11.64556131491208</v>
+        <v>6.911231972110868</v>
       </c>
       <c r="I10">
-        <v>17.55875364878695</v>
+        <v>10.6769566768222</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.28617571097491</v>
+        <v>22.61028681064266</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.51226628770436</v>
+        <v>11.67713137209194</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.411609700989348</v>
+        <v>10.0869231240389</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.207646512138255</v>
+        <v>5.313059234593698</v>
       </c>
       <c r="E11">
-        <v>20.94282329481781</v>
+        <v>39.16592998725609</v>
       </c>
       <c r="F11">
-        <v>18.81035273388329</v>
+        <v>17.28658293053587</v>
       </c>
       <c r="G11">
-        <v>19.56950896105233</v>
+        <v>21.23913063028163</v>
       </c>
       <c r="H11">
-        <v>11.61610323765046</v>
+        <v>6.919462757569836</v>
       </c>
       <c r="I11">
-        <v>17.48349237826131</v>
+        <v>10.46003650578982</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.64338915665895</v>
+        <v>23.31433237336826</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.48022569232797</v>
+        <v>11.85164724699707</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.457516396498945</v>
+        <v>10.20500602610272</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.230376406652899</v>
+        <v>5.364907236768182</v>
       </c>
       <c r="E12">
-        <v>21.20486594294235</v>
+        <v>39.72729163387243</v>
       </c>
       <c r="F12">
-        <v>18.82155241334333</v>
+        <v>17.45848350314397</v>
       </c>
       <c r="G12">
-        <v>19.59453597505802</v>
+        <v>21.50460340469653</v>
       </c>
       <c r="H12">
-        <v>11.60533060112973</v>
+        <v>6.924253644191071</v>
       </c>
       <c r="I12">
-        <v>17.45557808455405</v>
+        <v>10.37924583558465</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.77613643665805</v>
+        <v>23.57591835228359</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.46891834222604</v>
+        <v>11.92098714841572</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.447651187951034</v>
+        <v>10.179686422292</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.225494944272632</v>
+        <v>5.3537846987495</v>
       </c>
       <c r="E13">
-        <v>21.14870016183494</v>
+        <v>39.60672002777604</v>
       </c>
       <c r="F13">
-        <v>18.81909222694927</v>
+        <v>17.42139288574413</v>
       </c>
       <c r="G13">
-        <v>19.58907455240141</v>
+        <v>21.44340590484456</v>
       </c>
       <c r="H13">
-        <v>11.60763364716225</v>
+        <v>6.923145458075641</v>
       </c>
       <c r="I13">
-        <v>17.46156390536386</v>
+        <v>10.39658412769092</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.74765992616947</v>
+        <v>23.51980422844006</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.47131675920966</v>
+        <v>11.90590711951654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.415396159964348</v>
+        <v>10.09668820961966</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.209522727207364</v>
+        <v>5.317344547241622</v>
       </c>
       <c r="E14">
-        <v>20.96450332282399</v>
+        <v>39.212261969959</v>
       </c>
       <c r="F14">
-        <v>18.81125244135595</v>
+        <v>17.30069424082314</v>
       </c>
       <c r="G14">
-        <v>19.5715357503395</v>
+        <v>21.26051444489596</v>
       </c>
       <c r="H14">
-        <v>11.6152092925191</v>
+        <v>6.919822662943114</v>
       </c>
       <c r="I14">
-        <v>17.4811841248262</v>
+        <v>10.45336225099651</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.65436119786383</v>
+        <v>23.33595376439493</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.47927884543056</v>
+        <v>11.85728604491712</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.395576361470837</v>
+        <v>10.04552224985649</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.199699004501046</v>
+        <v>5.294895678440438</v>
       </c>
       <c r="E15">
-        <v>20.85088689426097</v>
+        <v>38.96967659750911</v>
       </c>
       <c r="F15">
-        <v>18.8065913644638</v>
+        <v>17.22696500314187</v>
       </c>
       <c r="G15">
-        <v>19.56100205682754</v>
+        <v>21.14878443392342</v>
       </c>
       <c r="H15">
-        <v>11.61989944807773</v>
+        <v>6.918008954881747</v>
       </c>
       <c r="I15">
-        <v>17.49327829128863</v>
+        <v>10.48831893686428</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.59688304588987</v>
+        <v>23.22268652761579</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.48426357206602</v>
+        <v>11.82793125097509</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.281065584860932</v>
+        <v>9.747288342591895</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.142795259076922</v>
+        <v>5.164294148207966</v>
       </c>
       <c r="E16">
-        <v>20.1876554719381</v>
+        <v>37.56429171470987</v>
       </c>
       <c r="F16">
-        <v>18.78204488855399</v>
+        <v>16.80759322340285</v>
       </c>
       <c r="G16">
-        <v>19.50385584906105</v>
+        <v>20.5131046870117</v>
       </c>
       <c r="H16">
-        <v>11.64753991851864</v>
+        <v>6.91092177455862</v>
       </c>
       <c r="I16">
-        <v>17.5637541508313</v>
+        <v>10.69131800953773</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.2624810881243</v>
+        <v>22.56357270614985</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.51447542313968</v>
+        <v>11.66617585317313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.210018128482217</v>
+        <v>9.559842085623758</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.107354685804505</v>
+        <v>5.082439763154583</v>
       </c>
       <c r="E17">
-        <v>19.76992340524036</v>
+        <v>36.68814648296743</v>
       </c>
       <c r="F17">
-        <v>18.76892022672663</v>
+        <v>16.55317694592112</v>
       </c>
       <c r="G17">
-        <v>19.4716793854253</v>
+        <v>20.12731753958343</v>
       </c>
       <c r="H17">
-        <v>11.66517623654662</v>
+        <v>6.909427296852813</v>
       </c>
       <c r="I17">
-        <v>17.60803300220001</v>
+        <v>10.81818070409483</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.05290486020943</v>
+        <v>22.15027766611174</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.5344733964659</v>
+        <v>11.5726232651828</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.168873209009859</v>
+        <v>9.450375456230026</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.086779012193123</v>
+        <v>5.034726574980423</v>
       </c>
       <c r="E18">
-        <v>19.52565287248186</v>
+        <v>36.17891806277268</v>
       </c>
       <c r="F18">
-        <v>18.76208274873292</v>
+        <v>16.40791579739845</v>
       </c>
       <c r="G18">
-        <v>19.45423420725439</v>
+        <v>19.90699587287554</v>
       </c>
       <c r="H18">
-        <v>11.67556955171718</v>
+        <v>6.909578123521959</v>
       </c>
       <c r="I18">
-        <v>17.63388516911878</v>
+        <v>10.89198332451698</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.93075308455153</v>
+        <v>21.90927238381181</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.54651164159019</v>
+        <v>11.52086443942097</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.154895399666539</v>
+        <v>9.413027907780505</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.079780025486529</v>
+        <v>5.018463530441974</v>
       </c>
       <c r="E19">
-        <v>19.44225868683073</v>
+        <v>36.00557907878117</v>
       </c>
       <c r="F19">
-        <v>18.75988995090074</v>
+        <v>16.35891947576046</v>
       </c>
       <c r="G19">
-        <v>19.44851019746398</v>
+        <v>19.8326727965495</v>
       </c>
       <c r="H19">
-        <v>11.67913133719182</v>
+        <v>6.909799144075625</v>
       </c>
       <c r="I19">
-        <v>17.64270428466245</v>
+        <v>10.91711308635734</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.88912019589429</v>
+        <v>21.8271074756518</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.55067943347811</v>
+        <v>11.50368827234339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.217610567218362</v>
+        <v>9.579967034431503</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.111147282265949</v>
+        <v>5.091218899158535</v>
       </c>
       <c r="E20">
-        <v>19.81480565740025</v>
+        <v>36.78195808303231</v>
       </c>
       <c r="F20">
-        <v>18.77024374866521</v>
+        <v>16.58014957117806</v>
       </c>
       <c r="G20">
-        <v>19.47499478760468</v>
+        <v>20.16822335084996</v>
       </c>
       <c r="H20">
-        <v>11.66327300128529</v>
+        <v>6.909480958299357</v>
       </c>
       <c r="I20">
-        <v>17.60327969479368</v>
+        <v>10.80458912551215</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.07538159953602</v>
+        <v>22.19461405595975</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.53228906308157</v>
+        <v>11.582369060446</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.424883370336333</v>
+        <v>10.12113495553118</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.214222570643664</v>
+        <v>5.328074645585871</v>
       </c>
       <c r="E21">
-        <v>21.01877108954127</v>
+        <v>39.32832474250147</v>
       </c>
       <c r="F21">
-        <v>18.81352579584545</v>
+        <v>17.33610431849749</v>
       </c>
       <c r="G21">
-        <v>19.57664372244129</v>
+        <v>21.31417247477583</v>
       </c>
       <c r="H21">
-        <v>11.61297374980512</v>
+        <v>6.920752250549674</v>
       </c>
       <c r="I21">
-        <v>17.4754053096613</v>
+        <v>10.4366478047078</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.6818341569681</v>
+        <v>23.39009126884287</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.47691772817643</v>
+        <v>11.87147805491925</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.557578483415036</v>
+        <v>10.46016874789657</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.279796814715268</v>
+        <v>5.477146573632073</v>
       </c>
       <c r="E22">
-        <v>21.77022041731249</v>
+        <v>40.94875943868539</v>
       </c>
       <c r="F22">
-        <v>18.8481272959736</v>
+        <v>17.83927210261599</v>
       </c>
       <c r="G22">
-        <v>19.65245564189202</v>
+        <v>22.13836539935691</v>
       </c>
       <c r="H22">
-        <v>11.58233042523464</v>
+        <v>6.937933695133255</v>
       </c>
       <c r="I22">
-        <v>17.3952443095574</v>
+        <v>10.20410345108807</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.06346674700515</v>
+        <v>24.14215186746043</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.44554509261397</v>
+        <v>12.07944324183042</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.487022615496105</v>
+        <v>10.28055679678145</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.244966613989486</v>
+        <v>5.398111962284839</v>
       </c>
       <c r="E23">
-        <v>21.37238702119899</v>
+        <v>40.08773328136628</v>
       </c>
       <c r="F23">
-        <v>18.8290834589671</v>
+        <v>17.56990548753922</v>
       </c>
       <c r="G23">
-        <v>19.61113984881342</v>
+        <v>21.6904770376134</v>
       </c>
       <c r="H23">
-        <v>11.59848082333388</v>
+        <v>6.92782545090541</v>
       </c>
       <c r="I23">
-        <v>17.43771591369357</v>
+        <v>10.32746414766573</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.86114612991531</v>
+        <v>23.74343480332538</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.46184658273177</v>
+        <v>11.96667347583197</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.214178953215169</v>
+        <v>9.570873844809547</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.10943327263101</v>
+        <v>5.08725188775797</v>
       </c>
       <c r="E24">
-        <v>19.79452719853556</v>
+        <v>36.73956309078469</v>
       </c>
       <c r="F24">
-        <v>18.7696431785769</v>
+        <v>16.56795210783542</v>
       </c>
       <c r="G24">
-        <v>19.47349261188074</v>
+        <v>20.14972523851509</v>
       </c>
       <c r="H24">
-        <v>11.66413266293914</v>
+        <v>6.909453560966602</v>
       </c>
       <c r="I24">
-        <v>17.60542743249285</v>
+        <v>10.81073118096307</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.06522504295823</v>
+        <v>22.17458015327633</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.53327491499684</v>
+        <v>11.57795668516878</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.909350745355206</v>
+        <v>8.742184087503578</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.95599183782751</v>
+        <v>4.727838761475428</v>
       </c>
       <c r="E25">
-        <v>17.93940150751057</v>
+        <v>32.92410479289636</v>
       </c>
       <c r="F25">
-        <v>18.73272347265279</v>
+        <v>15.52862193786784</v>
       </c>
       <c r="G25">
-        <v>19.36561741493569</v>
+        <v>18.57249133752686</v>
       </c>
       <c r="H25">
-        <v>11.74447730780411</v>
+        <v>6.927809628559392</v>
       </c>
       <c r="I25">
-        <v>17.80102404223196</v>
+        <v>11.36376391759524</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.14550905988707</v>
+        <v>20.35671834547347</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.63078356446546</v>
+        <v>11.23647401487664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.077469543191684</v>
+        <v>7.196232692655317</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.443160712191876</v>
+        <v>4.401712987657797</v>
       </c>
       <c r="E2">
-        <v>29.92329248059232</v>
+        <v>29.44970679654293</v>
       </c>
       <c r="F2">
-        <v>14.80219136564075</v>
+        <v>16.8686775712319</v>
       </c>
       <c r="G2">
-        <v>17.46910074881104</v>
+        <v>20.88910983481631</v>
       </c>
       <c r="H2">
-        <v>6.969907756034618</v>
+        <v>3.305419893148207</v>
       </c>
       <c r="I2">
-        <v>11.79646062744178</v>
+        <v>3.041379254775068</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.940716966235366</v>
       </c>
       <c r="K2">
-        <v>18.91087084125535</v>
+        <v>12.97034357624086</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.47414078222842</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.04699679760418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.13187081574158</v>
+      </c>
+      <c r="Q2">
+        <v>13.01630029390986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.593011549166835</v>
+        <v>6.807018282645943</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.23822420922396</v>
+        <v>4.206137656671725</v>
       </c>
       <c r="E3">
-        <v>27.76303458501858</v>
+        <v>27.60953839162376</v>
       </c>
       <c r="F3">
-        <v>14.3360194314651</v>
+        <v>16.2786204283891</v>
       </c>
       <c r="G3">
-        <v>16.76106815971708</v>
+        <v>20.01764973837411</v>
       </c>
       <c r="H3">
-        <v>7.014226899960494</v>
+        <v>3.076482539725408</v>
       </c>
       <c r="I3">
-        <v>12.10499289808333</v>
+        <v>3.120736317612911</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.892962597969625</v>
       </c>
       <c r="K3">
-        <v>17.86505017840497</v>
+        <v>13.15512013436144</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.57170103519142</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.95428616310797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.20845705339531</v>
+      </c>
+      <c r="Q3">
+        <v>12.76812058639044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.278879004499301</v>
+        <v>6.55135203476813</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.106691094581372</v>
+        <v>4.080648323138499</v>
       </c>
       <c r="E4">
-        <v>26.37205667832954</v>
+        <v>26.41712916187454</v>
       </c>
       <c r="F4">
-        <v>14.06333747258318</v>
+        <v>15.91484625780659</v>
       </c>
       <c r="G4">
-        <v>16.34724561733942</v>
+        <v>19.47596752932347</v>
       </c>
       <c r="H4">
-        <v>7.048580739355237</v>
+        <v>2.93093033867348</v>
       </c>
       <c r="I4">
-        <v>12.30183075528865</v>
+        <v>3.172128498740961</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.866713164938262</v>
       </c>
       <c r="K4">
-        <v>17.19097625749814</v>
+        <v>13.27139288068579</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.99153935274005</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.91385795591479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.25803994576959</v>
+      </c>
+      <c r="Q4">
+        <v>12.6200232654156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.146697293688884</v>
+        <v>6.430468088315373</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.051697320387839</v>
+        <v>4.028831059605507</v>
       </c>
       <c r="E5">
-        <v>25.78869043659445</v>
+        <v>25.9154844226231</v>
       </c>
       <c r="F5">
-        <v>13.95571911875018</v>
+        <v>15.76268864332606</v>
       </c>
       <c r="G5">
-        <v>16.18406187252443</v>
+        <v>19.24696659064673</v>
       </c>
       <c r="H5">
-        <v>7.064283611034106</v>
+        <v>2.87031972793362</v>
       </c>
       <c r="I5">
-        <v>12.3838870471459</v>
+        <v>3.196704111741708</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.855616038820607</v>
       </c>
       <c r="K5">
-        <v>16.90838021075902</v>
+        <v>13.31824247201121</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.75393617909954</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.90135326284704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.279666150983</v>
+      </c>
+      <c r="Q5">
+        <v>12.55786619977224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.124497602225269</v>
+        <v>6.394770383845557</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.042482844282928</v>
+        <v>4.020941956103922</v>
       </c>
       <c r="E6">
-        <v>25.69081615113727</v>
+        <v>25.83119058091711</v>
       </c>
       <c r="F6">
-        <v>13.93806320981019</v>
+        <v>15.73283048785316</v>
       </c>
       <c r="G6">
-        <v>16.15729995574749</v>
+        <v>19.2004239956247</v>
       </c>
       <c r="H6">
-        <v>7.066991310852233</v>
+        <v>2.860148636911185</v>
       </c>
       <c r="I6">
-        <v>12.39762334729329</v>
+        <v>3.204615045794625</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.852405522776566</v>
       </c>
       <c r="K6">
-        <v>16.860982226776</v>
+        <v>13.32457392858452</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.72052060508485</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.89951123131186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.28426993458572</v>
+      </c>
+      <c r="Q6">
+        <v>12.54404887291181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.277113203857234</v>
+        <v>6.508551732961696</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.10595501039866</v>
+        <v>4.08209696449289</v>
       </c>
       <c r="E7">
-        <v>26.36425651062664</v>
+        <v>26.41029550270914</v>
       </c>
       <c r="F7">
-        <v>14.06187179845094</v>
+        <v>15.90043089668437</v>
       </c>
       <c r="G7">
-        <v>16.34502254437352</v>
+        <v>19.45018748035759</v>
       </c>
       <c r="H7">
-        <v>7.048785736184858</v>
+        <v>2.930040713105138</v>
       </c>
       <c r="I7">
-        <v>12.30292995099032</v>
+        <v>3.182445254446292</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.862719971612922</v>
       </c>
       <c r="K7">
-        <v>17.18719688661186</v>
+        <v>13.26802812540718</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.00558174555352</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.9136734818805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.26108049965976</v>
+      </c>
+      <c r="Q7">
+        <v>12.60952666525295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.913899635058684</v>
+        <v>7.01459607226801</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.373704152853546</v>
+        <v>4.338127574099132</v>
       </c>
       <c r="E8">
-        <v>29.19165447268738</v>
+        <v>28.82806153885143</v>
       </c>
       <c r="F8">
-        <v>14.63870268912643</v>
+        <v>16.65007208694689</v>
       </c>
       <c r="G8">
-        <v>17.22075079886068</v>
+        <v>20.56181118401729</v>
       </c>
       <c r="H8">
-        <v>6.983649996690799</v>
+        <v>3.227414129422</v>
       </c>
       <c r="I8">
-        <v>11.90129553037675</v>
+        <v>3.080730262777731</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.918607138066331</v>
       </c>
       <c r="K8">
-        <v>18.55696476006027</v>
+        <v>13.02868029086013</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.18984965585896</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.01150294407311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.16178188360433</v>
+      </c>
+      <c r="Q8">
+        <v>12.91746367002448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.029798417095849</v>
+        <v>7.938880011851683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.852075362654063</v>
+        <v>4.792617085791092</v>
       </c>
       <c r="E9">
-        <v>34.23808652104928</v>
+        <v>33.07291320832644</v>
       </c>
       <c r="F9">
-        <v>15.87293144840987</v>
+        <v>18.1208882821865</v>
       </c>
       <c r="G9">
-        <v>19.09522238083405</v>
+        <v>22.71530102552446</v>
       </c>
       <c r="H9">
-        <v>6.916907453615619</v>
+        <v>3.77205591397476</v>
       </c>
       <c r="I9">
-        <v>11.17341193977065</v>
+        <v>2.886080878515533</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.060071025870208</v>
       </c>
       <c r="K9">
-        <v>20.98582779232234</v>
+        <v>12.58756045072046</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.2732649710696</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.34152042299182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.98228840891849</v>
+      </c>
+      <c r="Q9">
+        <v>13.5705725509593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.768453524684572</v>
+        <v>8.52567508991317</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.173548212332074</v>
+        <v>5.122439459651286</v>
       </c>
       <c r="E10">
-        <v>37.66355965494724</v>
+        <v>35.01287210727643</v>
       </c>
       <c r="F10">
-        <v>16.83676743792174</v>
+        <v>19.07045683346307</v>
       </c>
       <c r="G10">
-        <v>20.55733603634359</v>
+        <v>24.04689940220662</v>
       </c>
       <c r="H10">
-        <v>6.911231972110868</v>
+        <v>4.113377482221357</v>
       </c>
       <c r="I10">
-        <v>10.6769566768222</v>
+        <v>2.763237948783104</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.14645284075686</v>
       </c>
       <c r="K10">
-        <v>22.61028681064266</v>
+        <v>12.27407994185224</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>19.63058952078553</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.67713137209194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.87755139431241</v>
+      </c>
+      <c r="Q10">
+        <v>13.98168849124173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.0869231240389</v>
+        <v>8.803879730659018</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.313059234593698</v>
+        <v>5.466458556132557</v>
       </c>
       <c r="E11">
-        <v>39.16592998725609</v>
+        <v>28.38728456853129</v>
       </c>
       <c r="F11">
-        <v>17.28658293053587</v>
+        <v>18.58162272777889</v>
       </c>
       <c r="G11">
-        <v>21.23913063028163</v>
+        <v>22.98256478729077</v>
       </c>
       <c r="H11">
-        <v>6.919462757569836</v>
+        <v>4.463701146519261</v>
       </c>
       <c r="I11">
-        <v>10.46003650578982</v>
+        <v>2.74357684879313</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.903004154967723</v>
       </c>
       <c r="K11">
-        <v>23.31433237336826</v>
+        <v>12.13040550846827</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.83331588161615</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.85164724699707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.94722989365719</v>
+      </c>
+      <c r="Q11">
+        <v>13.44273252876686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.20500602610272</v>
+        <v>8.973522915577764</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.364907236768182</v>
+        <v>5.687757594155278</v>
       </c>
       <c r="E12">
-        <v>39.72729163387243</v>
+        <v>22.4272765261735</v>
       </c>
       <c r="F12">
-        <v>17.45848350314397</v>
+        <v>17.97130850936433</v>
       </c>
       <c r="G12">
-        <v>21.50460340469653</v>
+        <v>21.81351567322119</v>
       </c>
       <c r="H12">
-        <v>6.924253644191071</v>
+        <v>5.274175612060134</v>
       </c>
       <c r="I12">
-        <v>10.37924583558465</v>
+        <v>2.73358744169202</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.678127483071166</v>
       </c>
       <c r="K12">
-        <v>23.57591835228359</v>
+        <v>12.08267348740782</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.70977910337662</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.92098714841572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.02575241169817</v>
+      </c>
+      <c r="Q12">
+        <v>12.90091446257806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.179686422292</v>
+        <v>9.025400753033129</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.3537846987495</v>
+        <v>5.835695825059166</v>
       </c>
       <c r="E13">
-        <v>39.60672002777604</v>
+        <v>16.50924873573279</v>
       </c>
       <c r="F13">
-        <v>17.42139288574413</v>
+        <v>17.19861061449861</v>
       </c>
       <c r="G13">
-        <v>21.44340590484456</v>
+        <v>20.43129119610742</v>
       </c>
       <c r="H13">
-        <v>6.923145458075641</v>
+        <v>6.302984072365529</v>
       </c>
       <c r="I13">
-        <v>10.39658412769092</v>
+        <v>2.745793728735891</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.44717601781786</v>
       </c>
       <c r="K13">
-        <v>23.51980422844006</v>
+        <v>12.09939501169031</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.34668185764841</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.90590711951654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.11769573866301</v>
+      </c>
+      <c r="Q13">
+        <v>12.30286369961771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.09668820961966</v>
+        <v>8.999793557155881</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.317344547241622</v>
+        <v>5.908110346304811</v>
       </c>
       <c r="E14">
-        <v>39.212261969959</v>
+        <v>12.45096682565192</v>
       </c>
       <c r="F14">
-        <v>17.30069424082314</v>
+        <v>16.57339105756228</v>
       </c>
       <c r="G14">
-        <v>21.26051444489596</v>
+        <v>19.34595035184388</v>
       </c>
       <c r="H14">
-        <v>6.919822662943114</v>
+        <v>7.108432501982219</v>
       </c>
       <c r="I14">
-        <v>10.45336225099651</v>
+        <v>2.767363637932224</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.281925378045563</v>
       </c>
       <c r="K14">
-        <v>23.33595376439493</v>
+        <v>12.14030196120289</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.98502658450575</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.85728604491712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.18872956259968</v>
+      </c>
+      <c r="Q14">
+        <v>11.85402220842106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.04552224985649</v>
+        <v>8.954868714933902</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.294895678440438</v>
+        <v>5.910969778442425</v>
       </c>
       <c r="E15">
-        <v>38.96967659750911</v>
+        <v>11.4820087339056</v>
       </c>
       <c r="F15">
-        <v>17.22696500314187</v>
+        <v>16.38272432375611</v>
       </c>
       <c r="G15">
-        <v>21.14878443392342</v>
+        <v>19.02801239991856</v>
       </c>
       <c r="H15">
-        <v>6.918008954881747</v>
+        <v>7.294563842940388</v>
       </c>
       <c r="I15">
-        <v>10.48831893686428</v>
+        <v>2.782129974143887</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.240202627513106</v>
       </c>
       <c r="K15">
-        <v>23.22268652761579</v>
+        <v>12.16408816381485</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.84919917098771</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.82793125097509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.21011748852808</v>
+      </c>
+      <c r="Q15">
+        <v>11.73117789177788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.747288342591895</v>
+        <v>8.68771470929145</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.164294148207966</v>
+        <v>5.754821805334775</v>
       </c>
       <c r="E16">
-        <v>37.56429171470987</v>
+        <v>11.4015018101278</v>
       </c>
       <c r="F16">
-        <v>16.80759322340285</v>
+        <v>16.08863489524408</v>
       </c>
       <c r="G16">
-        <v>20.5131046870117</v>
+        <v>18.64649772300319</v>
       </c>
       <c r="H16">
-        <v>6.91092177455862</v>
+        <v>7.023781015850471</v>
       </c>
       <c r="I16">
-        <v>10.69131800953773</v>
+        <v>2.837344509216834</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.245787181234774</v>
       </c>
       <c r="K16">
-        <v>22.56357270614985</v>
+        <v>12.28685192366197</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.35163203141338</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.66617585317313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.22803441064399</v>
+      </c>
+      <c r="Q16">
+        <v>11.65452157145121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.559842085623758</v>
+        <v>8.490522616872674</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.082439763154583</v>
+        <v>5.592647146169571</v>
       </c>
       <c r="E17">
-        <v>36.68814648296743</v>
+        <v>13.52457191750332</v>
       </c>
       <c r="F17">
-        <v>16.55317694592112</v>
+        <v>16.20757948816201</v>
       </c>
       <c r="G17">
-        <v>20.12731753958343</v>
+        <v>18.95517467172627</v>
       </c>
       <c r="H17">
-        <v>6.909427296852813</v>
+        <v>6.33856300842657</v>
       </c>
       <c r="I17">
-        <v>10.81818070409483</v>
+        <v>2.869218518664413</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.338810111431264</v>
       </c>
       <c r="K17">
-        <v>22.15027766611174</v>
+        <v>12.36036165431416</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.16338249188036</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.5726232651828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.20605302811792</v>
+      </c>
+      <c r="Q17">
+        <v>11.83958585255191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.450375456230026</v>
+        <v>8.365359558875783</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.034726574980423</v>
+        <v>5.406876256962054</v>
       </c>
       <c r="E18">
-        <v>36.17891806277268</v>
+        <v>18.08715092786129</v>
       </c>
       <c r="F18">
-        <v>16.40791579739845</v>
+        <v>16.69942711053395</v>
       </c>
       <c r="G18">
-        <v>19.90699587287554</v>
+        <v>19.90302408887049</v>
       </c>
       <c r="H18">
-        <v>6.909578123521959</v>
+        <v>5.307085007735095</v>
       </c>
       <c r="I18">
-        <v>10.89198332451698</v>
+        <v>2.873100729902852</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.517814766427075</v>
       </c>
       <c r="K18">
-        <v>21.90927238381181</v>
+        <v>12.4006007214782</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.21813286788282</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.52086443942097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.14399582203232</v>
+      </c>
+      <c r="Q18">
+        <v>12.27256488686676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.413027907780505</v>
+        <v>8.247861947735382</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.018463530441974</v>
+        <v>5.221718726271765</v>
       </c>
       <c r="E19">
-        <v>36.00557907878117</v>
+        <v>24.3575886612964</v>
       </c>
       <c r="F19">
-        <v>16.35891947576046</v>
+        <v>17.42385391547469</v>
       </c>
       <c r="G19">
-        <v>19.8326727965495</v>
+        <v>21.24090596954562</v>
       </c>
       <c r="H19">
-        <v>6.909799144075625</v>
+        <v>4.330586774898661</v>
       </c>
       <c r="I19">
-        <v>10.91711308635734</v>
+        <v>2.873749846819704</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.744755366920216</v>
       </c>
       <c r="K19">
-        <v>21.8271074756518</v>
+        <v>12.4147531976383</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18.49563483186708</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.50368827234339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.06452674959606</v>
+      </c>
+      <c r="Q19">
+        <v>12.85203760471733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.579967034431503</v>
+        <v>8.275660594405032</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.091218899158535</v>
+        <v>5.044626411907902</v>
       </c>
       <c r="E20">
-        <v>36.78195808303231</v>
+        <v>34.47540231248063</v>
       </c>
       <c r="F20">
-        <v>16.58014957117806</v>
+        <v>18.78565942043058</v>
       </c>
       <c r="G20">
-        <v>20.16822335084996</v>
+        <v>23.63408390692485</v>
       </c>
       <c r="H20">
-        <v>6.909480958299357</v>
+        <v>4.02245949777615</v>
       </c>
       <c r="I20">
-        <v>10.80458912551215</v>
+        <v>2.826905155760817</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.110046626345081</v>
       </c>
       <c r="K20">
-        <v>22.19461405595975</v>
+        <v>12.34777964337623</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>19.32410310106729</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.582369060446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.91626416018937</v>
+      </c>
+      <c r="Q20">
+        <v>13.8420689618752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.12113495553118</v>
+        <v>8.711762518636823</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.328074645585871</v>
+        <v>5.251441035710881</v>
       </c>
       <c r="E21">
-        <v>39.32832474250147</v>
+        <v>37.23715929511381</v>
       </c>
       <c r="F21">
-        <v>17.33610431849749</v>
+        <v>19.67508705029017</v>
       </c>
       <c r="G21">
-        <v>21.31417247477583</v>
+        <v>24.94650976861419</v>
       </c>
       <c r="H21">
-        <v>6.920752250549674</v>
+        <v>4.335422500124495</v>
       </c>
       <c r="I21">
-        <v>10.4366478047078</v>
+        <v>2.72713242082899</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.234074410010638</v>
       </c>
       <c r="K21">
-        <v>23.39009126884287</v>
+        <v>12.11486337486424</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>20.38647384424973</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.87147805491925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.82050124631781</v>
+      </c>
+      <c r="Q21">
+        <v>14.29719253273768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.46016874789657</v>
+        <v>9.024318693005698</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.477146573632073</v>
+        <v>5.39094264554554</v>
       </c>
       <c r="E22">
-        <v>40.94875943868539</v>
+        <v>38.53407377072106</v>
       </c>
       <c r="F22">
-        <v>17.83927210261599</v>
+        <v>20.20905900220599</v>
       </c>
       <c r="G22">
-        <v>22.13836539935691</v>
+        <v>25.71638361739329</v>
       </c>
       <c r="H22">
-        <v>6.937933695133255</v>
+        <v>4.517078879020533</v>
       </c>
       <c r="I22">
-        <v>10.20410345108807</v>
+        <v>2.651962911167996</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.306497005139251</v>
       </c>
       <c r="K22">
-        <v>24.14215186746043</v>
+        <v>11.967241490892</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.01494182407419</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.07944324183042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.76138435533427</v>
+      </c>
+      <c r="Q22">
+        <v>14.56559985178967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.28055679678145</v>
+        <v>8.895374532886009</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.398111962284839</v>
+        <v>5.314918732778897</v>
       </c>
       <c r="E23">
-        <v>40.08773328136628</v>
+        <v>37.84688820115223</v>
       </c>
       <c r="F23">
-        <v>17.56990548753922</v>
+        <v>19.93617941569435</v>
       </c>
       <c r="G23">
-        <v>21.6904770376134</v>
+        <v>25.32706810324102</v>
       </c>
       <c r="H23">
-        <v>6.92782545090541</v>
+        <v>4.420498887069011</v>
       </c>
       <c r="I23">
-        <v>10.32746414766573</v>
+        <v>2.679357200414457</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.271686525640025</v>
       </c>
       <c r="K23">
-        <v>23.74343480332538</v>
+        <v>12.04848328018168</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>20.66627167114441</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.96667347583197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.78800157678056</v>
+      </c>
+      <c r="Q23">
+        <v>14.43182810109897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.570873844809547</v>
+        <v>8.320257825686465</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.08725188775797</v>
+        <v>5.01945970296572</v>
       </c>
       <c r="E24">
-        <v>36.73956309078469</v>
+        <v>35.1356826237008</v>
       </c>
       <c r="F24">
-        <v>16.56795210783542</v>
+        <v>18.87295507272907</v>
       </c>
       <c r="G24">
-        <v>20.14972523851509</v>
+        <v>23.79763568658495</v>
       </c>
       <c r="H24">
-        <v>6.909453560966602</v>
+        <v>4.047411709390417</v>
       </c>
       <c r="I24">
-        <v>10.81073118096307</v>
+        <v>2.807320949411209</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.140046854317678</v>
       </c>
       <c r="K24">
-        <v>22.17458015327633</v>
+        <v>12.35654023837938</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>19.31975566013174</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.57795668516878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.90177341589427</v>
+      </c>
+      <c r="Q24">
+        <v>13.91591547122811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.742184087503578</v>
+        <v>7.640025573366603</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.727838761475428</v>
+        <v>4.677985004692725</v>
       </c>
       <c r="E25">
-        <v>32.92410479289636</v>
+        <v>31.9775173395274</v>
       </c>
       <c r="F25">
-        <v>15.52862193786784</v>
+        <v>17.70637323061605</v>
       </c>
       <c r="G25">
-        <v>18.57249133752686</v>
+        <v>22.10533782519937</v>
       </c>
       <c r="H25">
-        <v>6.927809628559392</v>
+        <v>3.62861247874191</v>
       </c>
       <c r="I25">
-        <v>11.36376391759524</v>
+        <v>2.95422025818264</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.012346717811775</v>
       </c>
       <c r="K25">
-        <v>20.35671834547347</v>
+        <v>12.69914602277501</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.75953976242588</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.23647401487664</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.03476191153095</v>
+      </c>
+      <c r="Q25">
+        <v>13.37441491429414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.196232692655317</v>
+        <v>7.113953693194786</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.401712987657797</v>
+        <v>4.410843354402895</v>
       </c>
       <c r="E2">
-        <v>29.44970679654293</v>
+        <v>29.4230350247302</v>
       </c>
       <c r="F2">
-        <v>16.8686775712319</v>
+        <v>16.94486694973313</v>
       </c>
       <c r="G2">
-        <v>20.88910983481631</v>
+        <v>20.41417153073756</v>
       </c>
       <c r="H2">
-        <v>3.305419893148207</v>
+        <v>3.289164110591272</v>
       </c>
       <c r="I2">
-        <v>3.041379254775068</v>
+        <v>2.839598151464361</v>
       </c>
       <c r="J2">
-        <v>7.940716966235366</v>
+        <v>8.64876227530819</v>
       </c>
       <c r="K2">
-        <v>12.97034357624086</v>
+        <v>12.52203143240999</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.43781076071446</v>
       </c>
       <c r="M2">
-        <v>16.47414078222842</v>
+        <v>8.027142817141522</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.31695384282632</v>
       </c>
       <c r="P2">
-        <v>12.13187081574158</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.01630029390986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.02325763600795</v>
+      </c>
+      <c r="S2">
+        <v>13.09601455513826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.807018282645943</v>
+        <v>6.752852078912344</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.206137656671725</v>
+        <v>4.211229152862115</v>
       </c>
       <c r="E3">
-        <v>27.60953839162376</v>
+        <v>27.58634153634038</v>
       </c>
       <c r="F3">
-        <v>16.2786204283891</v>
+        <v>16.36751845989719</v>
       </c>
       <c r="G3">
-        <v>20.01764973837411</v>
+        <v>19.52587372010996</v>
       </c>
       <c r="H3">
-        <v>3.076482539725408</v>
+        <v>3.062623771416134</v>
       </c>
       <c r="I3">
-        <v>3.120736317612911</v>
+        <v>2.905650531422912</v>
       </c>
       <c r="J3">
-        <v>7.892962597969625</v>
+        <v>8.583031543680725</v>
       </c>
       <c r="K3">
-        <v>13.15512013436144</v>
+        <v>12.68807182855225</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.57374010784966</v>
       </c>
       <c r="M3">
-        <v>15.57170103519142</v>
+        <v>8.204445114355979</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.39030896915128</v>
       </c>
       <c r="P3">
-        <v>12.20845705339531</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.76812058639044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.08907408262569</v>
+      </c>
+      <c r="S3">
+        <v>12.85464601509257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.55135203476813</v>
+        <v>6.513854007812242</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.080648323138499</v>
+        <v>4.08316840545351</v>
       </c>
       <c r="E4">
-        <v>26.41712916187454</v>
+        <v>26.39613947877291</v>
       </c>
       <c r="F4">
-        <v>15.91484625780659</v>
+        <v>16.01106425828513</v>
       </c>
       <c r="G4">
-        <v>19.47596752932347</v>
+        <v>18.97423810694013</v>
       </c>
       <c r="H4">
-        <v>2.93093033867348</v>
+        <v>2.918579665494869</v>
       </c>
       <c r="I4">
-        <v>3.172128498740961</v>
+        <v>2.948805825668329</v>
       </c>
       <c r="J4">
-        <v>7.866713164938262</v>
+        <v>8.543821497065251</v>
       </c>
       <c r="K4">
-        <v>13.27139288068579</v>
+        <v>12.79275839991225</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.66835197537655</v>
       </c>
       <c r="M4">
-        <v>14.99153935274005</v>
+        <v>8.322033144040503</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>14.79431647188876</v>
       </c>
       <c r="P4">
-        <v>12.25803994576959</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.6200232654156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.13233147649378</v>
+      </c>
+      <c r="S4">
+        <v>12.71008479727977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.430468088315373</v>
+        <v>6.399912664521182</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.028831059605507</v>
+        <v>4.030233726939208</v>
       </c>
       <c r="E5">
-        <v>25.9154844226231</v>
+        <v>25.89541850901701</v>
       </c>
       <c r="F5">
-        <v>15.76268864332606</v>
+        <v>15.86200452560403</v>
       </c>
       <c r="G5">
-        <v>19.24696659064673</v>
+        <v>18.74158797599491</v>
       </c>
       <c r="H5">
-        <v>2.87031972793362</v>
+        <v>2.858594883206375</v>
       </c>
       <c r="I5">
-        <v>3.196704111741708</v>
+        <v>2.970532592512713</v>
       </c>
       <c r="J5">
-        <v>7.855616038820607</v>
+        <v>8.527094754627683</v>
       </c>
       <c r="K5">
-        <v>13.31824247201121</v>
+        <v>12.83458290604912</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.70630821365623</v>
       </c>
       <c r="M5">
-        <v>14.75393617909954</v>
+        <v>8.373424626690081</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>14.5497202909486</v>
       </c>
       <c r="P5">
-        <v>12.279666150983</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.55786619977224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.1513518985265</v>
+      </c>
+      <c r="S5">
+        <v>12.64939584419795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.394770383845557</v>
+        <v>6.365792463323559</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.020941956103922</v>
+        <v>4.022097914207599</v>
       </c>
       <c r="E6">
-        <v>25.83119058091711</v>
+        <v>25.81128299242975</v>
       </c>
       <c r="F6">
-        <v>15.73283048785316</v>
+        <v>15.83296323074519</v>
       </c>
       <c r="G6">
-        <v>19.2004239956247</v>
+        <v>18.69483480415654</v>
       </c>
       <c r="H6">
-        <v>2.860148636911185</v>
+        <v>2.848530286497682</v>
       </c>
       <c r="I6">
-        <v>3.204615045794625</v>
+        <v>2.978664611114739</v>
       </c>
       <c r="J6">
-        <v>7.852405522776566</v>
+        <v>8.523067474904025</v>
       </c>
       <c r="K6">
-        <v>13.32457392858452</v>
+        <v>12.83974119597721</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.70873549564192</v>
       </c>
       <c r="M6">
-        <v>14.72052060508485</v>
+        <v>8.383662429398219</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>14.51474965809773</v>
       </c>
       <c r="P6">
-        <v>12.28426993458572</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.54404887291181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.15540599079923</v>
+      </c>
+      <c r="S6">
+        <v>12.63605151469995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.508551732961696</v>
+        <v>6.474760774118374</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.08209696449289</v>
+        <v>4.087420301966298</v>
       </c>
       <c r="E7">
-        <v>26.41029550270914</v>
+        <v>26.38866849065385</v>
       </c>
       <c r="F7">
-        <v>15.90043089668437</v>
+        <v>15.98277318790239</v>
       </c>
       <c r="G7">
-        <v>19.45018748035759</v>
+        <v>19.05228424962308</v>
       </c>
       <c r="H7">
-        <v>2.930040713105138</v>
+        <v>2.917315255045185</v>
       </c>
       <c r="I7">
-        <v>3.182445254446292</v>
+        <v>2.961050996580343</v>
       </c>
       <c r="J7">
-        <v>7.862719971612922</v>
+        <v>8.496971363663905</v>
       </c>
       <c r="K7">
-        <v>13.26802812540718</v>
+        <v>12.78796883017873</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.6575300347422</v>
       </c>
       <c r="M7">
-        <v>15.00558174555352</v>
+        <v>8.3267580738408</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>14.80020156041626</v>
       </c>
       <c r="P7">
-        <v>12.26108049965976</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.60952666525295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.13584237094671</v>
+      </c>
+      <c r="S7">
+        <v>12.68907725499286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.01459607226801</v>
+        <v>6.951255840564547</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.338127574099132</v>
+        <v>4.355127845806062</v>
       </c>
       <c r="E8">
-        <v>28.82806153885143</v>
+        <v>28.80060767245271</v>
       </c>
       <c r="F8">
-        <v>16.65007208694689</v>
+        <v>16.68468026276091</v>
       </c>
       <c r="G8">
-        <v>20.56181118401729</v>
+        <v>20.40678045621117</v>
       </c>
       <c r="H8">
-        <v>3.227414129422</v>
+        <v>3.210783547339031</v>
       </c>
       <c r="I8">
-        <v>3.080730262777731</v>
+        <v>2.877135756065994</v>
       </c>
       <c r="J8">
-        <v>7.918607138066331</v>
+        <v>8.48041278955349</v>
       </c>
       <c r="K8">
-        <v>13.02868029086013</v>
+        <v>12.57183133356022</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.46967172373466</v>
       </c>
       <c r="M8">
-        <v>16.18984965585896</v>
+        <v>8.089479870119614</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>16.00133830101696</v>
       </c>
       <c r="P8">
-        <v>12.16178188360433</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.91746367002448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.05205428508431</v>
+      </c>
+      <c r="S8">
+        <v>12.96411412012863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.938880011851683</v>
+        <v>7.80353757319598</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.792617085791092</v>
+        <v>4.8209496925293</v>
       </c>
       <c r="E9">
-        <v>33.07291320832644</v>
+        <v>33.03684085364401</v>
       </c>
       <c r="F9">
-        <v>18.1208882821865</v>
+        <v>18.11211026001103</v>
       </c>
       <c r="G9">
-        <v>22.71530102552446</v>
+        <v>22.65523920015092</v>
       </c>
       <c r="H9">
-        <v>3.77205591397476</v>
+        <v>3.749427128049085</v>
       </c>
       <c r="I9">
-        <v>2.886080878515533</v>
+        <v>2.713441693853183</v>
       </c>
       <c r="J9">
-        <v>8.060071025870208</v>
+        <v>8.618525897582757</v>
       </c>
       <c r="K9">
-        <v>12.58756045072046</v>
+        <v>12.17847431418936</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.20861939641384</v>
       </c>
       <c r="M9">
-        <v>18.2732649710696</v>
+        <v>7.689631318343776</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>18.1373426873545</v>
       </c>
       <c r="P9">
-        <v>11.98228840891849</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.5705725509593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.90280852263862</v>
+      </c>
+      <c r="S9">
+        <v>13.58804333190089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.52567508991317</v>
+        <v>8.354542227201604</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.122439459651286</v>
+        <v>5.172578609289813</v>
       </c>
       <c r="E10">
-        <v>35.01287210727643</v>
+        <v>34.96786738725518</v>
       </c>
       <c r="F10">
-        <v>19.07045683346307</v>
+        <v>18.95806908011943</v>
       </c>
       <c r="G10">
-        <v>24.04689940220662</v>
+        <v>24.54437961032951</v>
       </c>
       <c r="H10">
-        <v>4.113377482221357</v>
+        <v>4.084883389372467</v>
       </c>
       <c r="I10">
-        <v>2.763237948783104</v>
+        <v>2.614602386413918</v>
       </c>
       <c r="J10">
-        <v>8.14645284075686</v>
+        <v>8.460354096117868</v>
       </c>
       <c r="K10">
-        <v>12.27407994185224</v>
+        <v>11.8998196268504</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.07455084187135</v>
       </c>
       <c r="M10">
-        <v>19.63058952078553</v>
+        <v>7.434739336775194</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>19.49311068721214</v>
       </c>
       <c r="P10">
-        <v>11.87755139431241</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.98168849124173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.82781188094001</v>
+      </c>
+      <c r="S10">
+        <v>13.91799294858312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.803879730659018</v>
+        <v>8.681346863482119</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.466458556132557</v>
+        <v>5.548612814114949</v>
       </c>
       <c r="E11">
-        <v>28.38728456853129</v>
+        <v>28.33301473803467</v>
       </c>
       <c r="F11">
-        <v>18.58162272777889</v>
+        <v>18.31520734173129</v>
       </c>
       <c r="G11">
-        <v>22.98256478729077</v>
+        <v>24.56040323052364</v>
       </c>
       <c r="H11">
-        <v>4.463701146519261</v>
+        <v>4.434803812626761</v>
       </c>
       <c r="I11">
-        <v>2.74357684879313</v>
+        <v>2.607544873471846</v>
       </c>
       <c r="J11">
-        <v>7.903004154967723</v>
+        <v>7.778650264110778</v>
       </c>
       <c r="K11">
-        <v>12.13040550846827</v>
+        <v>11.77725037836593</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.03807183457451</v>
       </c>
       <c r="M11">
-        <v>19.83331588161615</v>
+        <v>7.313816532343561</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>19.62078611210096</v>
       </c>
       <c r="P11">
-        <v>11.94722989365719</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.44273252876686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.92023266341686</v>
+      </c>
+      <c r="S11">
+        <v>13.25840508406664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.973522915577764</v>
+        <v>8.890801258161215</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.687757594155278</v>
+        <v>5.784306419890341</v>
       </c>
       <c r="E12">
-        <v>22.4272765261735</v>
+        <v>22.36575307891486</v>
       </c>
       <c r="F12">
-        <v>17.97130850936433</v>
+        <v>17.64043363557167</v>
       </c>
       <c r="G12">
-        <v>21.81351567322119</v>
+        <v>23.89331045257102</v>
       </c>
       <c r="H12">
-        <v>5.274175612060134</v>
+        <v>5.249695749451969</v>
       </c>
       <c r="I12">
-        <v>2.73358744169202</v>
+        <v>2.599690045103677</v>
       </c>
       <c r="J12">
-        <v>7.678127483071166</v>
+        <v>7.407780790353937</v>
       </c>
       <c r="K12">
-        <v>12.08267348740782</v>
+        <v>11.73966224196467</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.03952130939039</v>
       </c>
       <c r="M12">
-        <v>19.70977910337662</v>
+        <v>7.266858961264143</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>19.45525412967809</v>
       </c>
       <c r="P12">
-        <v>12.02575241169817</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.90091446257806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.00806541382858</v>
+      </c>
+      <c r="S12">
+        <v>12.66940202787263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.025400753033129</v>
+        <v>8.97785901815465</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.835695825059166</v>
+        <v>5.926524542777233</v>
       </c>
       <c r="E13">
-        <v>16.50924873573279</v>
+        <v>16.44029399877772</v>
       </c>
       <c r="F13">
-        <v>17.19861061449861</v>
+        <v>16.90035437251614</v>
       </c>
       <c r="G13">
-        <v>20.43129119610742</v>
+        <v>22.3936317887064</v>
       </c>
       <c r="H13">
-        <v>6.302984072365529</v>
+        <v>6.284046272210271</v>
       </c>
       <c r="I13">
-        <v>2.745793728735891</v>
+        <v>2.608967455419024</v>
       </c>
       <c r="J13">
-        <v>7.44717601781786</v>
+        <v>7.287075790491683</v>
       </c>
       <c r="K13">
-        <v>12.09939501169031</v>
+        <v>11.75661169293971</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.05326029024131</v>
       </c>
       <c r="M13">
-        <v>19.34668185764841</v>
+        <v>7.273487527173613</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>19.08446148794738</v>
       </c>
       <c r="P13">
-        <v>12.11769573866301</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.30286369961771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.09372053784081</v>
+      </c>
+      <c r="S13">
+        <v>12.10270265158192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.999793557155881</v>
+        <v>8.976051350161244</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.908110346304811</v>
+        <v>5.985646702297028</v>
       </c>
       <c r="E14">
-        <v>12.45096682565192</v>
+        <v>12.37406200585939</v>
       </c>
       <c r="F14">
-        <v>16.57339105756228</v>
+        <v>16.34068948065798</v>
       </c>
       <c r="G14">
-        <v>19.34595035184388</v>
+        <v>20.95156133544118</v>
       </c>
       <c r="H14">
-        <v>7.108432501982219</v>
+        <v>7.09309885824786</v>
       </c>
       <c r="I14">
-        <v>2.767363637932224</v>
+        <v>2.626881408087593</v>
       </c>
       <c r="J14">
-        <v>7.281925378045563</v>
+        <v>7.296132828992246</v>
       </c>
       <c r="K14">
-        <v>12.14030196120289</v>
+        <v>11.79201333907576</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.06589850432757</v>
       </c>
       <c r="M14">
-        <v>18.98502658450575</v>
+        <v>7.303885354340639</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>18.73185977025155</v>
       </c>
       <c r="P14">
-        <v>12.18872956259968</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.85402220842106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.15265947313895</v>
+      </c>
+      <c r="S14">
+        <v>11.70911835009601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.954868714933902</v>
+        <v>8.937098196270142</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.910969778442425</v>
+        <v>5.981214988221836</v>
       </c>
       <c r="E15">
-        <v>11.4820087339056</v>
+        <v>11.4035100691784</v>
       </c>
       <c r="F15">
-        <v>16.38272432375611</v>
+        <v>16.18445515811214</v>
       </c>
       <c r="G15">
-        <v>19.02801239991856</v>
+        <v>20.42887832772356</v>
       </c>
       <c r="H15">
-        <v>7.294563842940388</v>
+        <v>7.280248950522394</v>
       </c>
       <c r="I15">
-        <v>2.782129974143887</v>
+        <v>2.640563432639557</v>
       </c>
       <c r="J15">
-        <v>7.240202627513106</v>
+        <v>7.338380587773812</v>
       </c>
       <c r="K15">
-        <v>12.16408816381485</v>
+        <v>11.81203917170705</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.07074654511371</v>
       </c>
       <c r="M15">
-        <v>18.84919917098771</v>
+        <v>7.323722692185783</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>18.60415204177974</v>
       </c>
       <c r="P15">
-        <v>12.21011748852808</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.73117789177788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.16774507570899</v>
+      </c>
+      <c r="S15">
+        <v>11.61386500769668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.68771470929145</v>
+        <v>8.666716630721407</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.754821805334775</v>
+        <v>5.791996859349643</v>
       </c>
       <c r="E16">
-        <v>11.4015018101278</v>
+        <v>11.33488733677408</v>
       </c>
       <c r="F16">
-        <v>16.08863489524408</v>
+        <v>16.0413165588241</v>
       </c>
       <c r="G16">
-        <v>18.64649772300319</v>
+        <v>19.06931943421781</v>
       </c>
       <c r="H16">
-        <v>7.023781015850471</v>
+        <v>7.01170126745678</v>
       </c>
       <c r="I16">
-        <v>2.837344509216834</v>
+        <v>2.686464080515371</v>
       </c>
       <c r="J16">
-        <v>7.245787181234774</v>
+        <v>7.705513283642622</v>
       </c>
       <c r="K16">
-        <v>12.28685192366197</v>
+        <v>11.91434874892065</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.08519929721793</v>
       </c>
       <c r="M16">
-        <v>18.35163203141338</v>
+        <v>7.438596933918823</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>18.15724132703897</v>
       </c>
       <c r="P16">
-        <v>12.22803441064399</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.65452157145121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.15890045525989</v>
+      </c>
+      <c r="S16">
+        <v>11.6523219574975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.490522616872674</v>
+        <v>8.456307168246829</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.592647146169571</v>
+        <v>5.616179633883128</v>
       </c>
       <c r="E17">
-        <v>13.52457191750332</v>
+        <v>13.47004985904268</v>
       </c>
       <c r="F17">
-        <v>16.20757948816201</v>
+        <v>16.22170276921442</v>
       </c>
       <c r="G17">
-        <v>18.95517467172627</v>
+        <v>18.95221567352131</v>
       </c>
       <c r="H17">
-        <v>6.33856300842657</v>
+        <v>6.326493257424164</v>
       </c>
       <c r="I17">
-        <v>2.869218518664413</v>
+        <v>2.713365864409404</v>
       </c>
       <c r="J17">
-        <v>7.338810111431264</v>
+        <v>7.952257525331959</v>
       </c>
       <c r="K17">
-        <v>12.36036165431416</v>
+        <v>11.97714852875312</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.09810169640335</v>
       </c>
       <c r="M17">
-        <v>18.16338249188036</v>
+        <v>7.509367189640249</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.99479238004795</v>
       </c>
       <c r="P17">
-        <v>12.20605302811792</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.83958585255191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.12632527380604</v>
+      </c>
+      <c r="S17">
+        <v>11.88246873703738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.365359558875783</v>
+        <v>8.302421607907331</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.406876256962054</v>
+        <v>5.4264450979236</v>
       </c>
       <c r="E18">
-        <v>18.08715092786129</v>
+        <v>18.0425059548941</v>
       </c>
       <c r="F18">
-        <v>16.69942711053395</v>
+        <v>16.73190905333235</v>
       </c>
       <c r="G18">
-        <v>19.90302408887049</v>
+        <v>19.72047470040644</v>
       </c>
       <c r="H18">
-        <v>5.307085007735095</v>
+        <v>5.292897637299202</v>
       </c>
       <c r="I18">
-        <v>2.873100729902852</v>
+        <v>2.713306261361274</v>
       </c>
       <c r="J18">
-        <v>7.517814766427075</v>
+        <v>8.187497463615086</v>
       </c>
       <c r="K18">
-        <v>12.4006007214782</v>
+        <v>12.01302281750191</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.10956620681502</v>
       </c>
       <c r="M18">
-        <v>18.21813286788282</v>
+        <v>7.547124263320756</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.06938261012115</v>
       </c>
       <c r="P18">
-        <v>12.14399582203232</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.27256488686676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.06279987232944</v>
+      </c>
+      <c r="S18">
+        <v>12.3276796808876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.247861947735382</v>
+        <v>8.148035202018997</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.221718726271765</v>
+        <v>5.242577524509191</v>
       </c>
       <c r="E19">
-        <v>24.3575886612964</v>
+        <v>24.31803865580936</v>
       </c>
       <c r="F19">
-        <v>17.42385391547469</v>
+        <v>17.45176012429494</v>
       </c>
       <c r="G19">
-        <v>21.24090596954562</v>
+        <v>21.01297793516026</v>
       </c>
       <c r="H19">
-        <v>4.330586774898661</v>
+        <v>4.312045041615473</v>
       </c>
       <c r="I19">
-        <v>2.873749846819704</v>
+        <v>2.71555944674084</v>
       </c>
       <c r="J19">
-        <v>7.744755366920216</v>
+        <v>8.418771547548754</v>
       </c>
       <c r="K19">
-        <v>12.4147531976383</v>
+        <v>12.02634298375448</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.11798047750429</v>
       </c>
       <c r="M19">
-        <v>18.49563483186708</v>
+        <v>7.557645096091857</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>18.36370355993527</v>
       </c>
       <c r="P19">
-        <v>12.06452674959606</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.85203760471733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.9866685121656</v>
+      </c>
+      <c r="S19">
+        <v>12.90213287103887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.275660594405032</v>
+        <v>8.113093799075285</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.044626411907902</v>
+        <v>5.079655485736803</v>
       </c>
       <c r="E20">
-        <v>34.47540231248063</v>
+        <v>34.43447158569523</v>
       </c>
       <c r="F20">
-        <v>18.78565942043058</v>
+        <v>18.74799980754166</v>
       </c>
       <c r="G20">
-        <v>23.63408390692485</v>
+        <v>23.68802619388009</v>
       </c>
       <c r="H20">
-        <v>4.02245949777615</v>
+        <v>3.996603767141919</v>
       </c>
       <c r="I20">
-        <v>2.826905155760817</v>
+        <v>2.67786877030751</v>
       </c>
       <c r="J20">
-        <v>8.110046626345081</v>
+        <v>8.634811527982523</v>
       </c>
       <c r="K20">
-        <v>12.34777964337623</v>
+        <v>11.96649105898062</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.10043365140594</v>
       </c>
       <c r="M20">
-        <v>19.32410310106729</v>
+        <v>7.495035373091458</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>19.20465173798828</v>
       </c>
       <c r="P20">
-        <v>11.91626416018937</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.8420689618752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.85403279111795</v>
+      </c>
+      <c r="S20">
+        <v>13.83849757494436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.711762518636823</v>
+        <v>8.545932735617386</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.251441035710881</v>
+        <v>5.35005853137659</v>
       </c>
       <c r="E21">
-        <v>37.23715929511381</v>
+        <v>37.18097994129968</v>
       </c>
       <c r="F21">
-        <v>19.67508705029017</v>
+        <v>19.32064704926707</v>
       </c>
       <c r="G21">
-        <v>24.94650976861419</v>
+        <v>26.97182535504149</v>
       </c>
       <c r="H21">
-        <v>4.335422500124495</v>
+        <v>4.29946330466119</v>
       </c>
       <c r="I21">
-        <v>2.72713242082899</v>
+        <v>2.597946292736243</v>
       </c>
       <c r="J21">
-        <v>8.234074410010638</v>
+        <v>7.842923018046791</v>
       </c>
       <c r="K21">
-        <v>12.11486337486424</v>
+        <v>11.75740784103416</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.02549195090817</v>
       </c>
       <c r="M21">
-        <v>20.38647384424973</v>
+        <v>7.304343074483932</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>20.16570394025364</v>
       </c>
       <c r="P21">
-        <v>11.82050124631781</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.29719253273768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.80483849642596</v>
+      </c>
+      <c r="S21">
+        <v>14.03553839951137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.024318693005698</v>
+        <v>8.858628716307884</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.39094264554554</v>
+        <v>5.533191480633886</v>
       </c>
       <c r="E22">
-        <v>38.53407377072106</v>
+        <v>38.46821076245357</v>
       </c>
       <c r="F22">
-        <v>20.20905900220599</v>
+        <v>19.63564974263863</v>
       </c>
       <c r="G22">
-        <v>25.71638361739329</v>
+        <v>29.08945407532383</v>
       </c>
       <c r="H22">
-        <v>4.517078879020533</v>
+        <v>4.474749402762034</v>
       </c>
       <c r="I22">
-        <v>2.651962911167996</v>
+        <v>2.532912502953762</v>
       </c>
       <c r="J22">
-        <v>8.306497005139251</v>
+        <v>7.319821208879462</v>
       </c>
       <c r="K22">
-        <v>11.967241490892</v>
+        <v>11.62506864627173</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.990431528007806</v>
       </c>
       <c r="M22">
-        <v>21.01494182407419</v>
+        <v>7.188027529585808</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>20.723460619324</v>
       </c>
       <c r="P22">
-        <v>11.76138435533427</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.56559985178967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.77941375106601</v>
+      </c>
+      <c r="S22">
+        <v>14.12194903494359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.895374532886009</v>
+        <v>8.723049672622865</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.314918732778897</v>
+        <v>5.427661131293442</v>
       </c>
       <c r="E23">
-        <v>37.84688820115223</v>
+        <v>37.78717331532881</v>
       </c>
       <c r="F23">
-        <v>19.93617941569435</v>
+        <v>19.5110083735149</v>
       </c>
       <c r="G23">
-        <v>25.32706810324102</v>
+        <v>27.76893560132483</v>
       </c>
       <c r="H23">
-        <v>4.420498887069011</v>
+        <v>4.38220159389627</v>
       </c>
       <c r="I23">
-        <v>2.679357200414457</v>
+        <v>2.552164179852157</v>
       </c>
       <c r="J23">
-        <v>8.271686525640025</v>
+        <v>7.686595992618512</v>
       </c>
       <c r="K23">
-        <v>12.04848328018168</v>
+        <v>11.69721932270389</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.0071483007589</v>
       </c>
       <c r="M23">
-        <v>20.66627167114441</v>
+        <v>7.253709509500919</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>20.42738302748133</v>
       </c>
       <c r="P23">
-        <v>11.78800157678056</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.43182810109897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.78474918937219</v>
+      </c>
+      <c r="S23">
+        <v>14.11138637408452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.320257825686465</v>
+        <v>8.150741632142832</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.01945970296572</v>
+        <v>5.054451751825583</v>
       </c>
       <c r="E24">
-        <v>35.1356826237008</v>
+        <v>35.09487381905517</v>
       </c>
       <c r="F24">
-        <v>18.87295507272907</v>
+        <v>18.83548179804965</v>
       </c>
       <c r="G24">
-        <v>23.79763568658495</v>
+        <v>23.83208980322621</v>
       </c>
       <c r="H24">
-        <v>4.047411709390417</v>
+        <v>4.02152331943697</v>
       </c>
       <c r="I24">
-        <v>2.807320949411209</v>
+        <v>2.654318025194246</v>
       </c>
       <c r="J24">
-        <v>8.140046854317678</v>
+        <v>8.670176616589449</v>
       </c>
       <c r="K24">
-        <v>12.35654023837938</v>
+        <v>11.9737844445921</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.1053139868337</v>
       </c>
       <c r="M24">
-        <v>19.31975566013174</v>
+        <v>7.501191653305442</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>19.20416010935497</v>
       </c>
       <c r="P24">
-        <v>11.90177341589427</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.91591547122811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.8397277391498</v>
+      </c>
+      <c r="S24">
+        <v>13.91223843781111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.640025573366603</v>
+        <v>7.524431693623801</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.677985004692725</v>
+        <v>4.699299831931384</v>
       </c>
       <c r="E25">
-        <v>31.9775173395274</v>
+        <v>31.94452310590227</v>
       </c>
       <c r="F25">
-        <v>17.70637323061605</v>
+        <v>17.72999706204474</v>
       </c>
       <c r="G25">
-        <v>22.10533782519937</v>
+        <v>21.89221487565298</v>
       </c>
       <c r="H25">
-        <v>3.62861247874191</v>
+        <v>3.608066938720585</v>
       </c>
       <c r="I25">
-        <v>2.95422025818264</v>
+        <v>2.77644656461758</v>
       </c>
       <c r="J25">
-        <v>8.012346717811775</v>
+        <v>8.633649800979487</v>
       </c>
       <c r="K25">
-        <v>12.69914602277501</v>
+        <v>12.27779209149174</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.26218736453028</v>
       </c>
       <c r="M25">
-        <v>17.75953976242588</v>
+        <v>7.790226383528849</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>17.61734070358982</v>
       </c>
       <c r="P25">
-        <v>12.03476191153095</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.37441491429414</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.94504449087498</v>
+      </c>
+      <c r="S25">
+        <v>13.41648840301707</v>
       </c>
     </row>
   </sheetData>
